--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_top5.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_top5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>136.2328067130408</v>
       </c>
       <c r="O2" t="n">
-        <v>357.4846978768791</v>
+        <v>54340.43113819339</v>
       </c>
       <c r="P2" t="n">
-        <v>32697.15116128665</v>
+        <v>1811.339448721366</v>
       </c>
       <c r="Q2" t="n">
-        <v>1811.339448721366</v>
+        <v>9326.363530095463</v>
       </c>
       <c r="R2" t="n">
-        <v>5389.590123475136</v>
+        <v>3927.816236718019</v>
       </c>
       <c r="S2" t="n">
-        <v>2144.894852953376</v>
+        <v>360.8314144348568</v>
       </c>
       <c r="T2" t="n">
-        <v>200.6882002203933</v>
+        <v>1427.026420944738</v>
       </c>
       <c r="U2" t="n">
-        <v>778.8866911042015</v>
+        <v>68.86952192056796</v>
       </c>
       <c r="V2" t="n">
-        <v>40.07726210100284</v>
+        <v>5354.854010799066</v>
       </c>
       <c r="W2" t="n">
-        <v>2923.781544057578</v>
+        <v>429.7090442159175</v>
       </c>
       <c r="X2" t="n">
-        <v>240.7654623213961</v>
+        <v>580.5361003435752</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.4018975250099</v>
+        <v>40.79250288536489</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.06623186589389</v>
+        <v>394.8925078686553</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.208753582659</v>
+        <v>61.61752932847916</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.18253283312104</v>
+        <v>56187.38858946766</v>
       </c>
       <c r="AC2" t="n">
-        <v>32260.80246021621</v>
+        <v>1872.916596093193</v>
       </c>
       <c r="AD2" t="n">
-        <v>1872.916596093193</v>
+        <v>10423.06633816933</v>
       </c>
       <c r="AE2" t="n">
-        <v>5774.174466434786</v>
+        <v>4088.168866097966</v>
       </c>
       <c r="AF2" t="n">
-        <v>2231.274648648809</v>
+        <v>382.4639185925708</v>
       </c>
       <c r="AG2" t="n">
-        <v>210.9777710245493</v>
+        <v>1239.297521210558</v>
       </c>
       <c r="AH2" t="n">
-        <v>642.3693419349131</v>
+        <v>55.44704377277475</v>
       </c>
       <c r="AI2" t="n">
-        <v>31.92714968903917</v>
+        <v>5327.476243140836</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2873.643990583722</v>
+        <v>437.9207875840166</v>
       </c>
       <c r="AK2" t="n">
-        <v>242.9049207135884</v>
+        <v>604.7969643085353</v>
       </c>
       <c r="AL2" t="n">
-        <v>351.8653016239084</v>
+        <v>35.80722116902959</v>
       </c>
       <c r="AM2" t="n">
-        <v>18.26835497667019</v>
+        <v>416.9937781192298</v>
       </c>
       <c r="AN2" t="n">
-        <v>251.497443887995</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>39.37126333815139</v>
+        <v>67.04704783065259</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>136.9067665065516</v>
       </c>
       <c r="O3" t="n">
-        <v>359.6858284275538</v>
+        <v>49075.62252468539</v>
       </c>
       <c r="P3" t="n">
-        <v>36544.63406230591</v>
+        <v>1635.855283499542</v>
       </c>
       <c r="Q3" t="n">
-        <v>1635.855283499542</v>
+        <v>7727.221385396513</v>
       </c>
       <c r="R3" t="n">
-        <v>5518.447282817951</v>
+        <v>3231.410270691863</v>
       </c>
       <c r="S3" t="n">
-        <v>2164.935277095371</v>
+        <v>322.9625797722948</v>
       </c>
       <c r="T3" t="n">
-        <v>214.4089634897854</v>
+        <v>1514.689881874328</v>
       </c>
       <c r="U3" t="n">
-        <v>974.6202810350145</v>
+        <v>72.07693370436854</v>
       </c>
       <c r="V3" t="n">
-        <v>45.57421510775708</v>
+        <v>4746.109943421747</v>
       </c>
       <c r="W3" t="n">
-        <v>3139.555558130386</v>
+        <v>395.0321455680942</v>
       </c>
       <c r="X3" t="n">
-        <v>259.9831785975425</v>
+        <v>510.8458047487594</v>
       </c>
       <c r="Y3" t="n">
-        <v>369.2359960827587</v>
+        <v>34.34174515782178</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.80571959278342</v>
+        <v>361.061052179934</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.4690796575047</v>
+        <v>58.62061098109118</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.12888431212623</v>
+        <v>52208.81045529308</v>
       </c>
       <c r="AC3" t="n">
-        <v>32763.94784882715</v>
+        <v>1740.287878868024</v>
       </c>
       <c r="AD3" t="n">
-        <v>1740.287878868024</v>
+        <v>9605.657746026225</v>
       </c>
       <c r="AE3" t="n">
-        <v>5851.762573448197</v>
+        <v>4026.229992954621</v>
       </c>
       <c r="AF3" t="n">
-        <v>2400.588702216185</v>
+        <v>353.9112304720651</v>
       </c>
       <c r="AG3" t="n">
-        <v>216.3564761724141</v>
+        <v>1232.510774464488</v>
       </c>
       <c r="AH3" t="n">
-        <v>729.8988612979455</v>
+        <v>55.70545512520507</v>
       </c>
       <c r="AI3" t="n">
-        <v>34.2872931615566</v>
+        <v>5258.746287434828</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3130.48756351413</v>
+        <v>409.620301364523</v>
       </c>
       <c r="AK3" t="n">
-        <v>250.6437693339707</v>
+        <v>526.5937768789508</v>
       </c>
       <c r="AL3" t="n">
-        <v>346.5920369798736</v>
+        <v>28.90981296860416</v>
       </c>
       <c r="AM3" t="n">
-        <v>19.16662314459395</v>
+        <v>382.5178016058611</v>
       </c>
       <c r="AN3" t="n">
-        <v>250.7807747508421</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>40.33271947719193</v>
+        <v>63.43835922709801</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>146.0257787604298</v>
       </c>
       <c r="O4" t="n">
-        <v>346.0572097697712</v>
+        <v>47540.55169241769</v>
       </c>
       <c r="P4" t="n">
-        <v>32993.0932393699</v>
+        <v>1584.684308154401</v>
       </c>
       <c r="Q4" t="n">
-        <v>1584.684308154401</v>
+        <v>7664.975133790121</v>
       </c>
       <c r="R4" t="n">
-        <v>4963.928724607067</v>
+        <v>2914.526050728237</v>
       </c>
       <c r="S4" t="n">
-        <v>1796.338877144914</v>
+        <v>273.7805292484417</v>
       </c>
       <c r="T4" t="n">
-        <v>170.177590055964</v>
+        <v>1000.337465089753</v>
       </c>
       <c r="U4" t="n">
-        <v>589.9346345180453</v>
+        <v>48.18726884990737</v>
       </c>
       <c r="V4" t="n">
-        <v>30.67555623793015</v>
+        <v>3914.863458235371</v>
       </c>
       <c r="W4" t="n">
-        <v>2386.273511662958</v>
+        <v>321.9659420852129</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8531462938942</v>
+        <v>469.3805450499133</v>
       </c>
       <c r="Y4" t="n">
-        <v>312.1250799913062</v>
+        <v>32.32782251929529</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.15350814682349</v>
+        <v>306.2406258773992</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.9140543299238</v>
+        <v>51.74829777290703</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.59624930846736</v>
+        <v>52449.43348263517</v>
       </c>
       <c r="AC4" t="n">
-        <v>36664.64454263992</v>
+        <v>1748.310297338548</v>
       </c>
       <c r="AD4" t="n">
-        <v>1748.310297338548</v>
+        <v>10395.87800569975</v>
       </c>
       <c r="AE4" t="n">
-        <v>6979.008840781314</v>
+        <v>3695.321761837361</v>
       </c>
       <c r="AF4" t="n">
-        <v>2388.759395975404</v>
+        <v>353.0840309095061</v>
       </c>
       <c r="AG4" t="n">
-        <v>232.5143858283054</v>
+        <v>917.6348710777074</v>
       </c>
       <c r="AH4" t="n">
-        <v>560.971424674384</v>
+        <v>51.71610000750186</v>
       </c>
       <c r="AI4" t="n">
-        <v>32.21816873258425</v>
+        <v>4612.95671669971</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2949.730820649787</v>
+        <v>404.8017370762867</v>
       </c>
       <c r="AK4" t="n">
-        <v>264.7325545608897</v>
+        <v>597.5543092172436</v>
       </c>
       <c r="AL4" t="n">
-        <v>414.9168892738451</v>
+        <v>36.00653267781665</v>
       </c>
       <c r="AM4" t="n">
-        <v>22.02901902746116</v>
+        <v>431.9826898946305</v>
       </c>
       <c r="AN4" t="n">
-        <v>304.4766961477252</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>53.46204171694768</v>
+        <v>80.88479561205051</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>147.0103004860813</v>
       </c>
       <c r="O5" t="n">
-        <v>361.2149311834975</v>
+        <v>51713.78024915802</v>
       </c>
       <c r="P5" t="n">
-        <v>32968.99719878</v>
+        <v>1723.79556001714</v>
       </c>
       <c r="Q5" t="n">
-        <v>1723.79556001714</v>
+        <v>8186.087512393843</v>
       </c>
       <c r="R5" t="n">
-        <v>4861.304520925039</v>
+        <v>3497.296526673364</v>
       </c>
       <c r="S5" t="n">
-        <v>1868.54002690825</v>
+        <v>320.0677682380076</v>
       </c>
       <c r="T5" t="n">
-        <v>177.2850179768909</v>
+        <v>1189.685032878182</v>
       </c>
       <c r="U5" t="n">
-        <v>583.6296831922389</v>
+        <v>53.19570369450408</v>
       </c>
       <c r="V5" t="n">
-        <v>29.00805385463141</v>
+        <v>4686.973990142616</v>
       </c>
       <c r="W5" t="n">
-        <v>2452.169710100489</v>
+        <v>373.2577538040499</v>
       </c>
       <c r="X5" t="n">
-        <v>206.2930718315223</v>
+        <v>524.398038564837</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.5716157466039</v>
+        <v>32.38788418083355</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.25800496802994</v>
+        <v>354.7308092025299</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.4443541870608</v>
+        <v>57.4485538709461</v>
       </c>
       <c r="AB5" t="n">
-        <v>34.59966640404083</v>
+        <v>57377.33298848731</v>
       </c>
       <c r="AC5" t="n">
-        <v>36635.01617234933</v>
+        <v>1912.581913984662</v>
       </c>
       <c r="AD5" t="n">
-        <v>1912.581913984662</v>
+        <v>10673.72624232518</v>
       </c>
       <c r="AE5" t="n">
-        <v>6468.27154052781</v>
+        <v>4161.120496084342</v>
       </c>
       <c r="AF5" t="n">
-        <v>2372.770037946409</v>
+        <v>365.0781363875902</v>
       </c>
       <c r="AG5" t="n">
-        <v>215.8992687720128</v>
+        <v>1087.749952046179</v>
       </c>
       <c r="AH5" t="n">
-        <v>623.8759436281532</v>
+        <v>58.25393462289867</v>
       </c>
       <c r="AI5" t="n">
-        <v>31.68669614641804</v>
+        <v>5248.882139840453</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2996.645981574562</v>
+        <v>423.3305641750314</v>
       </c>
       <c r="AK5" t="n">
-        <v>247.5859649184309</v>
+        <v>574.2893169723857</v>
       </c>
       <c r="AL5" t="n">
-        <v>367.3456147305905</v>
+        <v>32.29086545341649</v>
       </c>
       <c r="AM5" t="n">
-        <v>18.87843243164913</v>
+        <v>407.7261383201994</v>
       </c>
       <c r="AN5" t="n">
-        <v>267.0782631641188</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>43.61852931686838</v>
+        <v>74.90826159195917</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>134.7699082498699</v>
       </c>
       <c r="O6" t="n">
-        <v>361.2415797719512</v>
+        <v>52111.20315633501</v>
       </c>
       <c r="P6" t="n">
-        <v>35969.5629997521</v>
+        <v>1737.043265390178</v>
       </c>
       <c r="Q6" t="n">
-        <v>1737.043265390178</v>
+        <v>8554.993097683506</v>
       </c>
       <c r="R6" t="n">
-        <v>5639.247009156503</v>
+        <v>3534.139277747991</v>
       </c>
       <c r="S6" t="n">
-        <v>2136.714155343431</v>
+        <v>328.5545507153933</v>
       </c>
       <c r="T6" t="n">
-        <v>200.6773274483358</v>
+        <v>1200.186417545109</v>
       </c>
       <c r="U6" t="n">
-        <v>693.3123434161564</v>
+        <v>61.55660955369801</v>
       </c>
       <c r="V6" t="n">
-        <v>35.35874644190492</v>
+        <v>4734.329371348942</v>
       </c>
       <c r="W6" t="n">
-        <v>2830.026498759588</v>
+        <v>390.1055929890576</v>
       </c>
       <c r="X6" t="n">
-        <v>236.0360738902407</v>
+        <v>540.9032210334964</v>
       </c>
       <c r="Y6" t="n">
-        <v>366.387460715668</v>
+        <v>36.61528595303091</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4535672166374</v>
+        <v>362.2374412136235</v>
       </c>
       <c r="AA6" t="n">
-        <v>257.1641348709527</v>
+        <v>57.52923834426811</v>
       </c>
       <c r="AB6" t="n">
-        <v>39.12036898922085</v>
+        <v>54906.20376423341</v>
       </c>
       <c r="AC6" t="n">
-        <v>31429.72964180509</v>
+        <v>1830.199716913045</v>
       </c>
       <c r="AD6" t="n">
-        <v>1830.199716913045</v>
+        <v>10741.15792798737</v>
       </c>
       <c r="AE6" t="n">
-        <v>5972.225679371772</v>
+        <v>4366.40972933364</v>
       </c>
       <c r="AF6" t="n">
-        <v>2416.595106528622</v>
+        <v>402.6915024903718</v>
       </c>
       <c r="AG6" t="n">
-        <v>224.3245741272479</v>
+        <v>1274.895412459711</v>
       </c>
       <c r="AH6" t="n">
-        <v>674.2156729168408</v>
+        <v>59.49726235297874</v>
       </c>
       <c r="AI6" t="n">
-        <v>34.38047430282041</v>
+        <v>5641.295966721356</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3090.810779445463</v>
+        <v>462.1846953933122</v>
       </c>
       <c r="AK6" t="n">
-        <v>258.7050484300684</v>
+        <v>583.279711245974</v>
       </c>
       <c r="AL6" t="n">
-        <v>333.4789609916228</v>
+        <v>34.04652889812165</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.15222178287095</v>
+        <v>405.4748901198883</v>
       </c>
       <c r="AN6" t="n">
-        <v>236.0476126626416</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>39.53743866330727</v>
+        <v>73.87392309975492</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>156.8762156767674</v>
       </c>
       <c r="O7" t="n">
-        <v>348.5005422158787</v>
+        <v>51486.03703515233</v>
       </c>
       <c r="P7" t="n">
-        <v>34911.98046373211</v>
+        <v>1716.19967270834</v>
       </c>
       <c r="Q7" t="n">
-        <v>1716.19967270834</v>
+        <v>8845.351648026373</v>
       </c>
       <c r="R7" t="n">
-        <v>5548.61199803714</v>
+        <v>3846.652514480645</v>
       </c>
       <c r="S7" t="n">
-        <v>2271.36773522257</v>
+        <v>366.4006972146814</v>
       </c>
       <c r="T7" t="n">
-        <v>224.480642822697</v>
+        <v>1212.749759277417</v>
       </c>
       <c r="U7" t="n">
-        <v>782.8313410010571</v>
+        <v>66.63585181948726</v>
       </c>
       <c r="V7" t="n">
-        <v>43.47634017247909</v>
+        <v>5059.387440268658</v>
       </c>
       <c r="W7" t="n">
-        <v>3054.199076223627</v>
+        <v>433.0405106818872</v>
       </c>
       <c r="X7" t="n">
-        <v>267.9569829951761</v>
+        <v>538.0323568245169</v>
       </c>
       <c r="Y7" t="n">
-        <v>366.1747385126549</v>
+        <v>36.68420838675014</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.03738483270247</v>
+        <v>384.7185212277454</v>
       </c>
       <c r="AA7" t="n">
-        <v>269.96258871244</v>
+        <v>61.42701735967968</v>
       </c>
       <c r="AB7" t="n">
-        <v>40.75660248004351</v>
+        <v>53918.55321994154</v>
       </c>
       <c r="AC7" t="n">
-        <v>33311.54833016812</v>
+        <v>1797.283988838248</v>
       </c>
       <c r="AD7" t="n">
-        <v>1797.283988838248</v>
+        <v>10309.01001673344</v>
       </c>
       <c r="AE7" t="n">
-        <v>6267.769239917518</v>
+        <v>4139.04071136434</v>
       </c>
       <c r="AF7" t="n">
-        <v>2598.280929591064</v>
+        <v>390.6953484584388</v>
       </c>
       <c r="AG7" t="n">
-        <v>242.0853955659798</v>
+        <v>1231.173312485939</v>
       </c>
       <c r="AH7" t="n">
-        <v>767.4774000188161</v>
+        <v>57.46482623206638</v>
       </c>
       <c r="AI7" t="n">
-        <v>37.72286048528147</v>
+        <v>5370.215962387384</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3365.758329609881</v>
+        <v>448.1676793602305</v>
       </c>
       <c r="AK7" t="n">
-        <v>279.8082560512613</v>
+        <v>610.7901507306843</v>
       </c>
       <c r="AL7" t="n">
-        <v>386.9760915612821</v>
+        <v>30.29101583119201</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.37149266558768</v>
+        <v>425.7907865185869</v>
       </c>
       <c r="AN7" t="n">
-        <v>266.6801687351416</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>47.47872489613902</v>
+        <v>76.6370611468766</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>146.6560847443322</v>
       </c>
       <c r="O8" t="n">
-        <v>342.7089625369905</v>
+        <v>52530.21824124888</v>
       </c>
       <c r="P8" t="n">
-        <v>35155.23932240921</v>
+        <v>1751.008102521452</v>
       </c>
       <c r="Q8" t="n">
-        <v>1751.008102521452</v>
+        <v>8840.395420937424</v>
       </c>
       <c r="R8" t="n">
-        <v>5647.915440460331</v>
+        <v>3754.251688470917</v>
       </c>
       <c r="S8" t="n">
-        <v>2267.037003249619</v>
+        <v>344.9052164739006</v>
       </c>
       <c r="T8" t="n">
-        <v>212.8288715508984</v>
+        <v>1342.907395491457</v>
       </c>
       <c r="U8" t="n">
-        <v>734.1885194485068</v>
+        <v>59.00911205487888</v>
       </c>
       <c r="V8" t="n">
-        <v>36.03483377738749</v>
+        <v>5097.168538038841</v>
       </c>
       <c r="W8" t="n">
-        <v>3001.225522698126</v>
+        <v>403.9160713666907</v>
       </c>
       <c r="X8" t="n">
-        <v>248.8637053282859</v>
+        <v>532.6877592229464</v>
       </c>
       <c r="Y8" t="n">
-        <v>354.3988016555753</v>
+        <v>32.21535483609721</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.19949504022178</v>
+        <v>363.3282101497599</v>
       </c>
       <c r="AA8" t="n">
-        <v>246.8423728118092</v>
+        <v>60.81469082589513</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.44277641892973</v>
+        <v>53697.75664621677</v>
       </c>
       <c r="AC8" t="n">
-        <v>32877.68909316669</v>
+        <v>1789.920292859818</v>
       </c>
       <c r="AD8" t="n">
-        <v>1789.920292859818</v>
+        <v>10107.87563261924</v>
       </c>
       <c r="AE8" t="n">
-        <v>6151.723893354814</v>
+        <v>3543.919507816136</v>
       </c>
       <c r="AF8" t="n">
-        <v>2169.54385412722</v>
+        <v>330.8165207777756</v>
       </c>
       <c r="AG8" t="n">
-        <v>201.2176812401096</v>
+        <v>788.722623541002</v>
       </c>
       <c r="AH8" t="n">
-        <v>454.5894688709933</v>
+        <v>41.73489959124158</v>
       </c>
       <c r="AI8" t="n">
-        <v>24.06478874081237</v>
+        <v>4332.651426989583</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2624.133322998213</v>
+        <v>372.5532933361765</v>
       </c>
       <c r="AK8" t="n">
-        <v>225.282469980922</v>
+        <v>587.1831113853302</v>
       </c>
       <c r="AL8" t="n">
-        <v>362.9028586299788</v>
+        <v>27.26475257511029</v>
       </c>
       <c r="AM8" t="n">
-        <v>17.4948447086806</v>
+        <v>422.2576663858497</v>
       </c>
       <c r="AN8" t="n">
-        <v>265.1974980819368</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>46.97506434287069</v>
+        <v>82.24023313710562</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>147.0183236902133</v>
       </c>
       <c r="O9" t="n">
-        <v>369.6246618952669</v>
+        <v>53941.30514705599</v>
       </c>
       <c r="P9" t="n">
-        <v>37689.06020984444</v>
+        <v>1798.04859472955</v>
       </c>
       <c r="Q9" t="n">
-        <v>1798.04859472955</v>
+        <v>8598.300775866719</v>
       </c>
       <c r="R9" t="n">
-        <v>5858.163606292431</v>
+        <v>3131.855075031643</v>
       </c>
       <c r="S9" t="n">
-        <v>2002.405354507048</v>
+        <v>301.3458862054814</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9658164289717</v>
+        <v>960.4369836778125</v>
       </c>
       <c r="U9" t="n">
-        <v>555.6162920087319</v>
+        <v>53.04736393027234</v>
       </c>
       <c r="V9" t="n">
-        <v>31.94771851568045</v>
+        <v>4092.28976863312</v>
       </c>
       <c r="W9" t="n">
-        <v>2558.02164651578</v>
+        <v>354.3889412916653</v>
       </c>
       <c r="X9" t="n">
-        <v>229.9135349446522</v>
+        <v>533.2358629051539</v>
       </c>
       <c r="Y9" t="n">
-        <v>367.0546207488741</v>
+        <v>25.69161617937492</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.27494462380372</v>
+        <v>382.329504839593</v>
       </c>
       <c r="AA9" t="n">
-        <v>271.2144672996254</v>
+        <v>62.9226773708605</v>
       </c>
       <c r="AB9" t="n">
-        <v>40.60324776948406</v>
+        <v>59501.75786847594</v>
       </c>
       <c r="AC9" t="n">
-        <v>34218.80873473713</v>
+        <v>1983.385445558271</v>
       </c>
       <c r="AD9" t="n">
-        <v>1983.385445558271</v>
+        <v>11664.08760065787</v>
       </c>
       <c r="AE9" t="n">
-        <v>6510.089584577243</v>
+        <v>4601.472431995043</v>
       </c>
       <c r="AF9" t="n">
-        <v>2567.433101286906</v>
+        <v>414.4831720276201</v>
       </c>
       <c r="AG9" t="n">
-        <v>236.0064792343379</v>
+        <v>1110.020652602933</v>
       </c>
       <c r="AH9" t="n">
-        <v>628.642352423978</v>
+        <v>54.52725138866411</v>
       </c>
       <c r="AI9" t="n">
-        <v>32.68235842707907</v>
+        <v>5711.507215991568</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3196.075453710884</v>
+        <v>469.0199320920946</v>
       </c>
       <c r="AK9" t="n">
-        <v>268.688837661417</v>
+        <v>659.8275529163907</v>
       </c>
       <c r="AL9" t="n">
-        <v>390.5235376654634</v>
+        <v>28.87899553081087</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.95102701359229</v>
+        <v>459.553870693047</v>
       </c>
       <c r="AN9" t="n">
-        <v>272.3589992410961</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>47.22577722579813</v>
+        <v>81.29879158209047</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>149.1348839783442</v>
       </c>
       <c r="O10" t="n">
-        <v>372.2437711510236</v>
+        <v>56363.45515822775</v>
       </c>
       <c r="P10" t="n">
-        <v>34740.06354894068</v>
+        <v>1878.782348657858</v>
       </c>
       <c r="Q10" t="n">
-        <v>1878.782348657858</v>
+        <v>9662.174269471618</v>
       </c>
       <c r="R10" t="n">
-        <v>5719.109484002065</v>
+        <v>3967.863007832801</v>
       </c>
       <c r="S10" t="n">
-        <v>2257.521983607298</v>
+        <v>373.3898095062822</v>
       </c>
       <c r="T10" t="n">
-        <v>214.0290729664061</v>
+        <v>1489.533424981661</v>
       </c>
       <c r="U10" t="n">
-        <v>819.6600328076213</v>
+        <v>71.62461074730226</v>
       </c>
       <c r="V10" t="n">
-        <v>40.80802578131339</v>
+        <v>5457.398320265781</v>
       </c>
       <c r="W10" t="n">
-        <v>3077.182016414919</v>
+        <v>445.0237855456406</v>
       </c>
       <c r="X10" t="n">
-        <v>254.8370987477194</v>
+        <v>588.9012790095996</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.2544868542287</v>
+        <v>36.47386156899924</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.5534763980546</v>
+        <v>408.3043106956132</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.0673106909846</v>
+        <v>71.07762457761223</v>
       </c>
       <c r="AB10" t="n">
-        <v>39.14146254499932</v>
+        <v>60226.94294744711</v>
       </c>
       <c r="AC10" t="n">
-        <v>33994.06977257627</v>
+        <v>2007.569483042892</v>
       </c>
       <c r="AD10" t="n">
-        <v>2007.569483042892</v>
+        <v>11710.11132361677</v>
       </c>
       <c r="AE10" t="n">
-        <v>6422.85609166981</v>
+        <v>4539.620092901376</v>
       </c>
       <c r="AF10" t="n">
-        <v>2455.509297016552</v>
+        <v>422.5325125274106</v>
       </c>
       <c r="AG10" t="n">
-        <v>232.1957521548858</v>
+        <v>1156.308300177111</v>
       </c>
       <c r="AH10" t="n">
-        <v>638.6912173656641</v>
+        <v>57.34786991482459</v>
       </c>
       <c r="AI10" t="n">
-        <v>32.62910252276296</v>
+        <v>5695.930582554875</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3094.200514382217</v>
+        <v>479.8768383845128</v>
       </c>
       <c r="AK10" t="n">
-        <v>264.8248546776488</v>
+        <v>668.9567892693829</v>
       </c>
       <c r="AL10" t="n">
-        <v>387.6024152438393</v>
+        <v>41.82739499963759</v>
       </c>
       <c r="AM10" t="n">
-        <v>21.35326417581467</v>
+        <v>471.7007625575732</v>
       </c>
       <c r="AN10" t="n">
-        <v>274.6141680442262</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>49.32357423153434</v>
+        <v>95.78968362670457</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>145.2542306665769</v>
       </c>
       <c r="O11" t="n">
-        <v>355.0326882979348</v>
+        <v>54207.77568075535</v>
       </c>
       <c r="P11" t="n">
-        <v>36522.12386530034</v>
+        <v>1806.927746665572</v>
       </c>
       <c r="Q11" t="n">
-        <v>1806.927746665572</v>
+        <v>9549.367585726655</v>
       </c>
       <c r="R11" t="n">
-        <v>6016.461476634726</v>
+        <v>3593.512576351315</v>
       </c>
       <c r="S11" t="n">
-        <v>2155.550613296511</v>
+        <v>321.8943743354711</v>
       </c>
       <c r="T11" t="n">
-        <v>195.8243242347876</v>
+        <v>1182.446363032394</v>
       </c>
       <c r="U11" t="n">
-        <v>641.5437942001238</v>
+        <v>53.09920578864199</v>
       </c>
       <c r="V11" t="n">
-        <v>30.83630608427109</v>
+        <v>4775.961547157998</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.094407496635</v>
+        <v>374.998364062094</v>
       </c>
       <c r="X11" t="n">
-        <v>226.6606303190587</v>
+        <v>565.3516755720294</v>
       </c>
       <c r="Y11" t="n">
-        <v>373.8785212824795</v>
+        <v>27.31648691810037</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.19510206241774</v>
+        <v>422.2403645765553</v>
       </c>
       <c r="AA11" t="n">
-        <v>271.5263650797413</v>
+        <v>57.50536576911904</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.10199538712695</v>
+        <v>57126.09782392457</v>
       </c>
       <c r="AC11" t="n">
-        <v>32032.52966434368</v>
+        <v>1904.202062811162</v>
       </c>
       <c r="AD11" t="n">
-        <v>1904.202062811162</v>
+        <v>11358.05331376177</v>
       </c>
       <c r="AE11" t="n">
-        <v>6352.817952707223</v>
+        <v>4717.81816300652</v>
       </c>
       <c r="AF11" t="n">
-        <v>2454.317925184154</v>
+        <v>412.7305674379361</v>
       </c>
       <c r="AG11" t="n">
-        <v>223.3564898865176</v>
+        <v>1288.145066344161</v>
       </c>
       <c r="AH11" t="n">
-        <v>658.9651917638857</v>
+        <v>61.49855875957688</v>
       </c>
       <c r="AI11" t="n">
-        <v>33.38853634454654</v>
+        <v>6005.972783165696</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3113.28311694804</v>
+        <v>474.2149106289232</v>
       </c>
       <c r="AK11" t="n">
-        <v>256.7450262310642</v>
+        <v>622.0433553154394</v>
       </c>
       <c r="AL11" t="n">
-        <v>351.4480018402058</v>
+        <v>31.975669220943</v>
       </c>
       <c r="AM11" t="n">
-        <v>17.56812549745704</v>
+        <v>415.99891369964</v>
       </c>
       <c r="AN11" t="n">
-        <v>240.3984393826692</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>41.98691752958946</v>
+        <v>78.41848875800615</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>141.5883224186385</v>
       </c>
       <c r="O12" t="n">
-        <v>334.3453482600311</v>
+        <v>50920.23786280643</v>
       </c>
       <c r="P12" t="n">
-        <v>38477.26688121688</v>
+        <v>1697.346659610947</v>
       </c>
       <c r="Q12" t="n">
-        <v>1697.346659610947</v>
+        <v>8328.143174534296</v>
       </c>
       <c r="R12" t="n">
-        <v>6026.23261168341</v>
+        <v>3412.842155411295</v>
       </c>
       <c r="S12" t="n">
-        <v>2328.357385451642</v>
+        <v>315.8376281131695</v>
       </c>
       <c r="T12" t="n">
-        <v>216.1930011392946</v>
+        <v>1099.547888768252</v>
       </c>
       <c r="U12" t="n">
-        <v>699.6520387781475</v>
+        <v>46.28523959536106</v>
       </c>
       <c r="V12" t="n">
-        <v>33.23324715309047</v>
+        <v>4512.390009867727</v>
       </c>
       <c r="W12" t="n">
-        <v>3028.009424229789</v>
+        <v>362.1192085941468</v>
       </c>
       <c r="X12" t="n">
-        <v>249.4262482923851</v>
+        <v>519.2980065484542</v>
       </c>
       <c r="Y12" t="n">
-        <v>382.0871790161056</v>
+        <v>32.11875304991323</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.86115957925583</v>
+        <v>376.8415560113581</v>
       </c>
       <c r="AA12" t="n">
-        <v>282.7007696116468</v>
+        <v>55.94876472312965</v>
       </c>
       <c r="AB12" t="n">
-        <v>40.46636134508397</v>
+        <v>52248.97634323581</v>
       </c>
       <c r="AC12" t="n">
-        <v>30856.27698723946</v>
+        <v>1741.633834885517</v>
       </c>
       <c r="AD12" t="n">
-        <v>1741.633834885517</v>
+        <v>9981.314539399325</v>
       </c>
       <c r="AE12" t="n">
-        <v>5721.219876620145</v>
+        <v>4289.434512290298</v>
       </c>
       <c r="AF12" t="n">
-        <v>2343.042981346368</v>
+        <v>404.2391064886972</v>
       </c>
       <c r="AG12" t="n">
-        <v>216.7400843640235</v>
+        <v>1311.522983633287</v>
       </c>
       <c r="AH12" t="n">
-        <v>638.7372578974685</v>
+        <v>67.09012933354725</v>
       </c>
       <c r="AI12" t="n">
-        <v>32.26287000079425</v>
+        <v>5600.961388649574</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2981.780239243837</v>
+        <v>471.3258203650877</v>
       </c>
       <c r="AK12" t="n">
-        <v>249.0029543648178</v>
+        <v>567.1925270808657</v>
       </c>
       <c r="AL12" t="n">
-        <v>349.7647080815347</v>
+        <v>35.11962139581701</v>
       </c>
       <c r="AM12" t="n">
-        <v>18.44406176278549</v>
+        <v>398.5480136043868</v>
       </c>
       <c r="AN12" t="n">
-        <v>244.9531397130422</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>40.30646108646974</v>
+        <v>76.69697436867945</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>165.1239068061687</v>
       </c>
       <c r="O13" t="n">
-        <v>381.3621028267136</v>
+        <v>54910.85275783628</v>
       </c>
       <c r="P13" t="n">
-        <v>36503.83528952149</v>
+        <v>1830.360121531688</v>
       </c>
       <c r="Q13" t="n">
-        <v>1830.360121531688</v>
+        <v>8814.466369570557</v>
       </c>
       <c r="R13" t="n">
-        <v>5553.029707214853</v>
+        <v>3648.244170248376</v>
       </c>
       <c r="S13" t="n">
-        <v>2139.206567671466</v>
+        <v>349.4189944136818</v>
       </c>
       <c r="T13" t="n">
-        <v>213.9595937779795</v>
+        <v>1297.813300635431</v>
       </c>
       <c r="U13" t="n">
-        <v>768.0136066508679</v>
+        <v>71.71832394701447</v>
       </c>
       <c r="V13" t="n">
-        <v>42.15538395923376</v>
+        <v>4946.054332635964</v>
       </c>
       <c r="W13" t="n">
-        <v>2907.220174322334</v>
+        <v>421.1373183606963</v>
       </c>
       <c r="X13" t="n">
-        <v>256.1149777372133</v>
+        <v>526.0174697704546</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.6493224537385</v>
+        <v>34.94068933711147</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.00779040842693</v>
+        <v>379.9084019641787</v>
       </c>
       <c r="AA13" t="n">
-        <v>255.6823867719518</v>
+        <v>68.25133631447466</v>
       </c>
       <c r="AB13" t="n">
-        <v>40.31008019299096</v>
+        <v>59016.05157977038</v>
       </c>
       <c r="AC13" t="n">
-        <v>38571.06723817245</v>
+        <v>1967.19973914133</v>
       </c>
       <c r="AD13" t="n">
-        <v>1967.19973914133</v>
+        <v>11377.14543713441</v>
       </c>
       <c r="AE13" t="n">
-        <v>7131.290876984248</v>
+        <v>4170.326538130966</v>
       </c>
       <c r="AF13" t="n">
-        <v>2402.508471649616</v>
+        <v>414.2577827754939</v>
       </c>
       <c r="AG13" t="n">
-        <v>242.1841393904927</v>
+        <v>1239.478146722928</v>
       </c>
       <c r="AH13" t="n">
-        <v>623.0025202782047</v>
+        <v>59.33020376461949</v>
       </c>
       <c r="AI13" t="n">
-        <v>32.10303969074983</v>
+        <v>5409.801594771138</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3025.510991927821</v>
+        <v>473.5913237882488</v>
       </c>
       <c r="AK13" t="n">
-        <v>274.2871790812425</v>
+        <v>648.8523258620025</v>
       </c>
       <c r="AL13" t="n">
-        <v>414.8912487884163</v>
+        <v>37.06589258483478</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.87337839574193</v>
+        <v>469.5496018286346</v>
       </c>
       <c r="AN13" t="n">
-        <v>309.9112536487094</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>53.62013518722578</v>
+        <v>93.39890266945793</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>154.845665671851</v>
       </c>
       <c r="O14" t="n">
-        <v>336.7230449461481</v>
+        <v>50897.34908032908</v>
       </c>
       <c r="P14" t="n">
-        <v>37651.14512878461</v>
+        <v>1696.588660155777</v>
       </c>
       <c r="Q14" t="n">
-        <v>1696.588660155777</v>
+        <v>8430.201663368465</v>
       </c>
       <c r="R14" t="n">
-        <v>6108.588685143468</v>
+        <v>3576.509002497666</v>
       </c>
       <c r="S14" t="n">
-        <v>2309.079201356908</v>
+        <v>329.7183644564896</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9365132908871</v>
+        <v>1565.515127653094</v>
       </c>
       <c r="U14" t="n">
-        <v>814.2561456818843</v>
+        <v>71.47421800624549</v>
       </c>
       <c r="V14" t="n">
-        <v>41.77609097849363</v>
+        <v>5142.033411778046</v>
       </c>
       <c r="W14" t="n">
-        <v>3123.335347038792</v>
+        <v>401.2090999998403</v>
       </c>
       <c r="X14" t="n">
-        <v>254.7126042693807</v>
+        <v>497.9052602243439</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.2347812390527</v>
+        <v>34.50782871473665</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.67988880898254</v>
+        <v>333.873443103719</v>
       </c>
       <c r="AA14" t="n">
-        <v>254.8319103687517</v>
+        <v>57.53983898811563</v>
       </c>
       <c r="AB14" t="n">
-        <v>38.36487335180689</v>
+        <v>52206.97884866157</v>
       </c>
       <c r="AC14" t="n">
-        <v>35452.85444428674</v>
+        <v>1740.227064087217</v>
       </c>
       <c r="AD14" t="n">
-        <v>1740.227064087217</v>
+        <v>10558.65153087114</v>
       </c>
       <c r="AE14" t="n">
-        <v>6955.773055624648</v>
+        <v>4464.361925172792</v>
       </c>
       <c r="AF14" t="n">
-        <v>2845.762778822903</v>
+        <v>395.0836992397996</v>
       </c>
       <c r="AG14" t="n">
-        <v>250.0286277196208</v>
+        <v>1327.613226278221</v>
       </c>
       <c r="AH14" t="n">
-        <v>789.8794386377405</v>
+        <v>65.50197255902091</v>
       </c>
       <c r="AI14" t="n">
-        <v>41.19043252713552</v>
+        <v>5791.97993893417</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3635.642217460644</v>
+        <v>460.5804784395794</v>
       </c>
       <c r="AK14" t="n">
-        <v>291.2190602467563</v>
+        <v>559.9266854179381</v>
       </c>
       <c r="AL14" t="n">
-        <v>388.2012946365948</v>
+        <v>39.24519965166028</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.48984772714532</v>
+        <v>385.9510664926104</v>
       </c>
       <c r="AN14" t="n">
-        <v>271.3078527771145</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>49.1204627630795</v>
+        <v>76.14309880274338</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>155.8463364813048</v>
       </c>
       <c r="O15" t="n">
-        <v>354.9958772760726</v>
+        <v>50812.23524269391</v>
       </c>
       <c r="P15" t="n">
-        <v>36048.34775723202</v>
+        <v>1693.73467896958</v>
       </c>
       <c r="Q15" t="n">
-        <v>1693.73467896958</v>
+        <v>8374.452239262082</v>
       </c>
       <c r="R15" t="n">
-        <v>5902.189071281653</v>
+        <v>3590.304200459625</v>
       </c>
       <c r="S15" t="n">
-        <v>2436.427062295941</v>
+        <v>337.4685269614416</v>
       </c>
       <c r="T15" t="n">
-        <v>223.6938568378421</v>
+        <v>1437.958658586377</v>
       </c>
       <c r="U15" t="n">
-        <v>803.3004746892564</v>
+        <v>68.84241366494416</v>
       </c>
       <c r="V15" t="n">
-        <v>42.47394109330934</v>
+        <v>5028.253484896495</v>
       </c>
       <c r="W15" t="n">
-        <v>3239.727536985197</v>
+        <v>406.3090386257618</v>
       </c>
       <c r="X15" t="n">
-        <v>266.1677979311515</v>
+        <v>519.0935249326961</v>
       </c>
       <c r="Y15" t="n">
-        <v>357.1057765765186</v>
+        <v>34.76080564189769</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.98828039929113</v>
+        <v>366.3064539940408</v>
       </c>
       <c r="AA15" t="n">
-        <v>259.7133564880129</v>
+        <v>61.63345037114535</v>
       </c>
       <c r="AB15" t="n">
-        <v>38.97559119405937</v>
+        <v>53180.79742177275</v>
       </c>
       <c r="AC15" t="n">
-        <v>33611.48268846</v>
+        <v>1772.691475724142</v>
       </c>
       <c r="AD15" t="n">
-        <v>1772.691475724142</v>
+        <v>10282.1268305019</v>
       </c>
       <c r="AE15" t="n">
-        <v>6213.350550423727</v>
+        <v>4044.897446725815</v>
       </c>
       <c r="AF15" t="n">
-        <v>2378.787528354559</v>
+        <v>367.8136795269003</v>
       </c>
       <c r="AG15" t="n">
-        <v>222.1634943693697</v>
+        <v>1290.161289838483</v>
       </c>
       <c r="AH15" t="n">
-        <v>694.9031975822481</v>
+        <v>58.45069532313823</v>
       </c>
       <c r="AI15" t="n">
-        <v>34.07426270823114</v>
+        <v>5335.053159146642</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3073.690725936807</v>
+        <v>426.2605819265694</v>
       </c>
       <c r="AK15" t="n">
-        <v>256.2377570776009</v>
+        <v>592.1630346642613</v>
       </c>
       <c r="AL15" t="n">
-        <v>381.1491419503202</v>
+        <v>28.5909594495737</v>
       </c>
       <c r="AM15" t="n">
-        <v>18.9271733181706</v>
+        <v>416.201879551698</v>
       </c>
       <c r="AN15" t="n">
-        <v>274.8937246814584</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>53.37713443606357</v>
+        <v>87.39143846770261</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>147.1834653697623</v>
       </c>
       <c r="O16" t="n">
-        <v>340.3471733577765</v>
+        <v>52274.13925222158</v>
       </c>
       <c r="P16" t="n">
-        <v>36710.75255244117</v>
+        <v>1742.475145976513</v>
       </c>
       <c r="Q16" t="n">
-        <v>1742.475145976513</v>
+        <v>9080.550012359618</v>
       </c>
       <c r="R16" t="n">
-        <v>5993.163627541887</v>
+        <v>3421.252164508472</v>
       </c>
       <c r="S16" t="n">
-        <v>2275.291657763472</v>
+        <v>340.4597275253399</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5108053652039</v>
+        <v>1317.752969479011</v>
       </c>
       <c r="U16" t="n">
-        <v>815.9564082055273</v>
+        <v>68.63078920897024</v>
       </c>
       <c r="V16" t="n">
-        <v>42.18955085688808</v>
+        <v>4739.010890671715</v>
       </c>
       <c r="W16" t="n">
-        <v>3091.248065969</v>
+        <v>409.0960896374276</v>
       </c>
       <c r="X16" t="n">
-        <v>257.700356222092</v>
+        <v>528.2127389842647</v>
       </c>
       <c r="Y16" t="n">
-        <v>356.880664237313</v>
+        <v>39.92070101809517</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.13675932518154</v>
+        <v>375.577482232747</v>
       </c>
       <c r="AA16" t="n">
-        <v>260.147999012133</v>
+        <v>66.60131899274597</v>
       </c>
       <c r="AB16" t="n">
-        <v>42.36548691250694</v>
+        <v>51395.21330005609</v>
       </c>
       <c r="AC16" t="n">
-        <v>28652.66423642741</v>
+        <v>1713.173725587225</v>
       </c>
       <c r="AD16" t="n">
-        <v>1713.173725587225</v>
+        <v>9990.082164079233</v>
       </c>
       <c r="AE16" t="n">
-        <v>5388.969113530048</v>
+        <v>3740.191766067792</v>
       </c>
       <c r="AF16" t="n">
-        <v>2024.596875967541</v>
+        <v>364.3991558664922</v>
       </c>
       <c r="AG16" t="n">
-        <v>197.657063528209</v>
+        <v>866.9233975831133</v>
       </c>
       <c r="AH16" t="n">
-        <v>473.1437701282676</v>
+        <v>48.21144110086136</v>
       </c>
       <c r="AI16" t="n">
-        <v>26.7940357486829</v>
+        <v>4607.111649457243</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2497.740646095809</v>
+        <v>412.6051643298998</v>
       </c>
       <c r="AK16" t="n">
-        <v>224.4510992768919</v>
+        <v>577.5322882138649</v>
       </c>
       <c r="AL16" t="n">
-        <v>330.3225832494712</v>
+        <v>38.09205837463545</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.15994061416938</v>
+        <v>404.6033210416437</v>
       </c>
       <c r="AN16" t="n">
-        <v>231.8950079405367</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>40.83931122396887</v>
+        <v>75.8828114782397</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>159.5849611472909</v>
       </c>
       <c r="O17" t="n">
-        <v>365.51879804868</v>
+        <v>55860.16937863489</v>
       </c>
       <c r="P17" t="n">
-        <v>36410.59377436688</v>
+        <v>1862.010057946853</v>
       </c>
       <c r="Q17" t="n">
-        <v>1862.010057946853</v>
+        <v>9581.391773651436</v>
       </c>
       <c r="R17" t="n">
-        <v>5853.655568215573</v>
+        <v>4024.013754613839</v>
       </c>
       <c r="S17" t="n">
-        <v>2352.254705897958</v>
+        <v>383.9470877829417</v>
       </c>
       <c r="T17" t="n">
-        <v>228.4856972397961</v>
+        <v>1294.65772911142</v>
       </c>
       <c r="U17" t="n">
-        <v>825.115761945603</v>
+        <v>76.76397319982892</v>
       </c>
       <c r="V17" t="n">
-        <v>45.43369916629778</v>
+        <v>5318.669140875017</v>
       </c>
       <c r="W17" t="n">
-        <v>3177.370467843561</v>
+        <v>460.7134224293487</v>
       </c>
       <c r="X17" t="n">
-        <v>273.9193964060939</v>
+        <v>601.7349274313638</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.4814421557805</v>
+        <v>45.20095652270702</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.8100290312214</v>
+        <v>414.6540855486326</v>
       </c>
       <c r="AA17" t="n">
-        <v>267.1549071425879</v>
+        <v>67.27011056921233</v>
       </c>
       <c r="AB17" t="n">
-        <v>40.50243201641227</v>
+        <v>58328.06255946585</v>
       </c>
       <c r="AC17" t="n">
-        <v>32578.54937118233</v>
+        <v>1944.276590765426</v>
       </c>
       <c r="AD17" t="n">
-        <v>1944.276590765426</v>
+        <v>11686.27354259457</v>
       </c>
       <c r="AE17" t="n">
-        <v>6452.764167391025</v>
+        <v>5141.323461981954</v>
       </c>
       <c r="AF17" t="n">
-        <v>2704.92103172731</v>
+        <v>454.7061954770096</v>
       </c>
       <c r="AG17" t="n">
-        <v>248.6219524855061</v>
+        <v>1343.590282878475</v>
       </c>
       <c r="AH17" t="n">
-        <v>745.0830428262245</v>
+        <v>69.99541517952632</v>
       </c>
       <c r="AI17" t="n">
-        <v>38.10579217785559</v>
+        <v>6484.906701309873</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3450.004074553535</v>
+        <v>524.6945332241166</v>
       </c>
       <c r="AK17" t="n">
-        <v>286.7277446633617</v>
+        <v>633.1106697049534</v>
       </c>
       <c r="AL17" t="n">
-        <v>365.0330281600793</v>
+        <v>39.0210123814842</v>
       </c>
       <c r="AM17" t="n">
-        <v>20.3591907199122</v>
+        <v>458.4125029899815</v>
       </c>
       <c r="AN17" t="n">
-        <v>256.4186687189931</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51.59583753399086</v>
+        <v>95.70926436249388</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>152.0310824390391</v>
       </c>
       <c r="O18" t="n">
-        <v>363.7546596937985</v>
+        <v>54029.39438557512</v>
       </c>
       <c r="P18" t="n">
-        <v>43036.58911554726</v>
+        <v>1800.975971351058</v>
       </c>
       <c r="Q18" t="n">
-        <v>1800.975971351058</v>
+        <v>8825.988407299496</v>
       </c>
       <c r="R18" t="n">
-        <v>6537.080724691912</v>
+        <v>3198.380724543727</v>
       </c>
       <c r="S18" t="n">
-        <v>2310.667035375071</v>
+        <v>299.6061989126104</v>
       </c>
       <c r="T18" t="n">
-        <v>221.7634079750726</v>
+        <v>1143.74172095376</v>
       </c>
       <c r="U18" t="n">
-        <v>742.6161086859261</v>
+        <v>50.42467329616234</v>
       </c>
       <c r="V18" t="n">
-        <v>38.88879005981095</v>
+        <v>4342.110657986233</v>
       </c>
       <c r="W18" t="n">
-        <v>3053.283144060996</v>
+        <v>350.0356058635049</v>
       </c>
       <c r="X18" t="n">
-        <v>260.6521980348836</v>
+        <v>541.363003218412</v>
       </c>
       <c r="Y18" t="n">
-        <v>417.8302729892968</v>
+        <v>32.26724998106794</v>
       </c>
       <c r="Z18" t="n">
-        <v>27.34271168853274</v>
+        <v>366.4158191422713</v>
       </c>
       <c r="AA18" t="n">
-        <v>302.3239362395682</v>
+        <v>53.08825861077968</v>
       </c>
       <c r="AB18" t="n">
-        <v>43.13724560619251</v>
+        <v>56213.02972785663</v>
       </c>
       <c r="AC18" t="n">
-        <v>31372.47765470216</v>
+        <v>1873.774050465069</v>
       </c>
       <c r="AD18" t="n">
-        <v>1873.774050465069</v>
+        <v>11166.35549859945</v>
       </c>
       <c r="AE18" t="n">
-        <v>6106.75616823849</v>
+        <v>4142.686872291363</v>
       </c>
       <c r="AF18" t="n">
-        <v>2318.788192920086</v>
+        <v>397.0261874755566</v>
       </c>
       <c r="AG18" t="n">
-        <v>212.5228371011605</v>
+        <v>1163.181214107055</v>
       </c>
       <c r="AH18" t="n">
-        <v>546.2093370371831</v>
+        <v>51.38947105441886</v>
       </c>
       <c r="AI18" t="n">
-        <v>29.02567856306273</v>
+        <v>5305.846789159094</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2864.997529957269</v>
+        <v>448.4250945500078</v>
       </c>
       <c r="AK18" t="n">
-        <v>241.5485156642233</v>
+        <v>619.6999397300383</v>
       </c>
       <c r="AL18" t="n">
-        <v>345.462281991539</v>
+        <v>29.38643810853517</v>
       </c>
       <c r="AM18" t="n">
-        <v>17.67324851782819</v>
+        <v>430.2332924438261</v>
       </c>
       <c r="AN18" t="n">
-        <v>238.373326823114</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>42.87450446162912</v>
+        <v>82.25989383763378</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>150.4050960097919</v>
       </c>
       <c r="O19" t="n">
-        <v>356.63496082455</v>
+        <v>54107.29616110942</v>
       </c>
       <c r="P19" t="n">
-        <v>34479.51667353096</v>
+        <v>1803.579187107902</v>
       </c>
       <c r="Q19" t="n">
-        <v>1803.579187107902</v>
+        <v>9635.725427371672</v>
       </c>
       <c r="R19" t="n">
-        <v>5631.506402503494</v>
+        <v>4013.268253847985</v>
       </c>
       <c r="S19" t="n">
-        <v>2198.789448796791</v>
+        <v>381.3488621360997</v>
       </c>
       <c r="T19" t="n">
-        <v>216.2515852372958</v>
+        <v>1521.35414599156</v>
       </c>
       <c r="U19" t="n">
-        <v>838.0194134716472</v>
+        <v>76.58348430410679</v>
       </c>
       <c r="V19" t="n">
-        <v>43.27023445467631</v>
+        <v>5534.624250389628</v>
       </c>
       <c r="W19" t="n">
-        <v>3036.808862268439</v>
+        <v>457.9379376618623</v>
       </c>
       <c r="X19" t="n">
-        <v>259.5218196919721</v>
+        <v>558.5310976965513</v>
       </c>
       <c r="Y19" t="n">
-        <v>349.1037895865165</v>
+        <v>35.4593539204968</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.85486693206374</v>
+        <v>369.4182844772427</v>
       </c>
       <c r="AA19" t="n">
-        <v>245.0888651467573</v>
+        <v>61.6549669534494</v>
       </c>
       <c r="AB19" t="n">
-        <v>36.03163894900457</v>
+        <v>56914.6437350144</v>
       </c>
       <c r="AC19" t="n">
-        <v>36042.75287595357</v>
+        <v>1897.150784119574</v>
       </c>
       <c r="AD19" t="n">
-        <v>1897.150784119574</v>
+        <v>11175.34647882927</v>
       </c>
       <c r="AE19" t="n">
-        <v>6933.350409154018</v>
+        <v>4629.334760614655</v>
       </c>
       <c r="AF19" t="n">
-        <v>2705.567292964637</v>
+        <v>404.1374477180949</v>
       </c>
       <c r="AG19" t="n">
-        <v>245.8807162963923</v>
+        <v>1129.332982910541</v>
       </c>
       <c r="AH19" t="n">
-        <v>636.9180413598212</v>
+        <v>58.74872277154543</v>
       </c>
       <c r="AI19" t="n">
-        <v>34.03609740476083</v>
+        <v>5758.660704600011</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3342.485334324459</v>
+        <v>462.9008581945632</v>
       </c>
       <c r="AK19" t="n">
-        <v>279.9168137011532</v>
+        <v>623.7231001735503</v>
       </c>
       <c r="AL19" t="n">
-        <v>400.7934410126439</v>
+        <v>34.17035115218628</v>
       </c>
       <c r="AM19" t="n">
-        <v>21.04422523373679</v>
+        <v>464.9089741997679</v>
       </c>
       <c r="AN19" t="n">
-        <v>299.4393334727383</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>52.06721599168645</v>
+        <v>86.04701128610621</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>156.3329645918203</v>
       </c>
       <c r="O20" t="n">
-        <v>343.4762187234974</v>
+        <v>50680.70506426818</v>
       </c>
       <c r="P20" t="n">
-        <v>35681.49813686484</v>
+        <v>1689.351545249779</v>
       </c>
       <c r="Q20" t="n">
-        <v>1689.351545249779</v>
+        <v>8932.545368874209</v>
       </c>
       <c r="R20" t="n">
-        <v>5917.74670643572</v>
+        <v>3770.415141820376</v>
       </c>
       <c r="S20" t="n">
-        <v>2406.802120438796</v>
+        <v>362.6552024490581</v>
       </c>
       <c r="T20" t="n">
-        <v>221.7570112185135</v>
+        <v>1494.69384028356</v>
       </c>
       <c r="U20" t="n">
-        <v>808.6748790832455</v>
+        <v>69.86336110842538</v>
       </c>
       <c r="V20" t="n">
-        <v>41.25821743307547</v>
+        <v>5265.118261588413</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.476999522042</v>
+        <v>432.5203726155984</v>
       </c>
       <c r="X20" t="n">
-        <v>263.0152286515889</v>
+        <v>537.3645339153818</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.8640190633555</v>
+        <v>34.59056703560357</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.50018104872573</v>
+        <v>357.5298556699539</v>
       </c>
       <c r="AA20" t="n">
-        <v>254.1550882391213</v>
+        <v>61.85255033227652</v>
       </c>
       <c r="AB20" t="n">
-        <v>39.55826050237282</v>
+        <v>52496.72483973876</v>
       </c>
       <c r="AC20" t="n">
-        <v>35366.38354865577</v>
+        <v>1749.89282173485</v>
       </c>
       <c r="AD20" t="n">
-        <v>1749.89282173485</v>
+        <v>10687.15330754995</v>
       </c>
       <c r="AE20" t="n">
-        <v>7088.693947230669</v>
+        <v>4355.496694539907</v>
       </c>
       <c r="AF20" t="n">
-        <v>2841.824584016074</v>
+        <v>389.8690101072133</v>
       </c>
       <c r="AG20" t="n">
-        <v>254.0287599510364</v>
+        <v>1086.395754055789</v>
       </c>
       <c r="AH20" t="n">
-        <v>702.0960300804365</v>
+        <v>58.23699256227278</v>
       </c>
       <c r="AI20" t="n">
-        <v>37.42609965430489</v>
+        <v>5441.881440568116</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3543.920614096511</v>
+        <v>448.105883504773</v>
       </c>
       <c r="AK20" t="n">
-        <v>291.4548596053413</v>
+        <v>562.6562047831931</v>
       </c>
       <c r="AL20" t="n">
-        <v>389.8733090961499</v>
+        <v>31.43196235837888</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.18409182747261</v>
+        <v>407.3552154163058</v>
       </c>
       <c r="AN20" t="n">
-        <v>284.6263814474089</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>52.23849199952046</v>
+        <v>79.08528059929451</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>156.3263519405357</v>
       </c>
       <c r="O21" t="n">
-        <v>343.7398951808855</v>
+        <v>50029.98333233886</v>
       </c>
       <c r="P21" t="n">
-        <v>36341.26113641199</v>
+        <v>1667.659935095766</v>
       </c>
       <c r="Q21" t="n">
-        <v>1667.659935095766</v>
+        <v>8512.61330257362</v>
       </c>
       <c r="R21" t="n">
-        <v>5894.554831115482</v>
+        <v>3154.159890886141</v>
       </c>
       <c r="S21" t="n">
-        <v>2180.350765688986</v>
+        <v>287.0871390703811</v>
       </c>
       <c r="T21" t="n">
-        <v>200.9391436122093</v>
+        <v>990.5531271469596</v>
       </c>
       <c r="U21" t="n">
-        <v>711.5006010900241</v>
+        <v>47.68241863500427</v>
       </c>
       <c r="V21" t="n">
-        <v>34.8657600480285</v>
+        <v>4144.739576726626</v>
       </c>
       <c r="W21" t="n">
-        <v>2891.851366779011</v>
+        <v>334.7602144740953</v>
       </c>
       <c r="X21" t="n">
-        <v>235.8049036602378</v>
+        <v>517.4927766329313</v>
       </c>
       <c r="Y21" t="n">
-        <v>363.2163902827674</v>
+        <v>30.57420945781739</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.38429024757456</v>
+        <v>355.9575703998259</v>
       </c>
       <c r="AA21" t="n">
-        <v>256.8174587604205</v>
+        <v>51.58962525551679</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.664203446781</v>
+        <v>56803.38317909683</v>
       </c>
       <c r="AC21" t="n">
-        <v>37172.85949257195</v>
+        <v>1893.446633506074</v>
       </c>
       <c r="AD21" t="n">
-        <v>1893.446633506074</v>
+        <v>11709.94935018456</v>
       </c>
       <c r="AE21" t="n">
-        <v>7390.759768619801</v>
+        <v>4744.15526636128</v>
       </c>
       <c r="AF21" t="n">
-        <v>2822.600201644894</v>
+        <v>402.0907187925224</v>
       </c>
       <c r="AG21" t="n">
-        <v>251.290421373554</v>
+        <v>1034.773917057843</v>
       </c>
       <c r="AH21" t="n">
-        <v>648.2499316095657</v>
+        <v>46.86052635868339</v>
       </c>
       <c r="AI21" t="n">
-        <v>30.89551857746348</v>
+        <v>5778.917733939797</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3470.85013325446</v>
+        <v>448.9455229331045</v>
       </c>
       <c r="AK21" t="n">
-        <v>282.1859399510174</v>
+        <v>640.5256317406552</v>
       </c>
       <c r="AL21" t="n">
-        <v>432.863387305648</v>
+        <v>33.75646530944773</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.31542082934885</v>
+        <v>451.3639965620411</v>
       </c>
       <c r="AN21" t="n">
-        <v>313.118528589027</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>54.92158848424062</v>
+        <v>82.19645865580738</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>155.0074207399147</v>
       </c>
       <c r="O22" t="n">
-        <v>352.7238215310416</v>
+        <v>51995.60217456366</v>
       </c>
       <c r="P22" t="n">
-        <v>37851.43711525213</v>
+        <v>1733.183627445658</v>
       </c>
       <c r="Q22" t="n">
-        <v>1733.183627445658</v>
+        <v>8942.202257026391</v>
       </c>
       <c r="R22" t="n">
-        <v>6266.616172006306</v>
+        <v>3322.43269130084</v>
       </c>
       <c r="S22" t="n">
-        <v>2309.323109848279</v>
+        <v>316.7152790208745</v>
       </c>
       <c r="T22" t="n">
-        <v>220.1354197217831</v>
+        <v>1007.741828753207</v>
       </c>
       <c r="U22" t="n">
-        <v>719.3071675634505</v>
+        <v>52.84834034633168</v>
       </c>
       <c r="V22" t="n">
-        <v>38.31393422130541</v>
+        <v>4330.182011442123</v>
       </c>
       <c r="W22" t="n">
-        <v>3028.63027741173</v>
+        <v>369.5617575550424</v>
       </c>
       <c r="X22" t="n">
-        <v>258.4493539430886</v>
+        <v>571.6211324830422</v>
       </c>
       <c r="Y22" t="n">
-        <v>407.8018214398237</v>
+        <v>33.78291852245477</v>
       </c>
       <c r="Z22" t="n">
-        <v>24.51639937470927</v>
+        <v>405.7315421892969</v>
       </c>
       <c r="AA22" t="n">
-        <v>293.0543678794626</v>
+        <v>58.43887517014024</v>
       </c>
       <c r="AB22" t="n">
-        <v>39.92004051761413</v>
+        <v>54410.53143076934</v>
       </c>
       <c r="AC22" t="n">
-        <v>31913.30200305773</v>
+        <v>1813.687280711868</v>
       </c>
       <c r="AD22" t="n">
-        <v>1813.687280711868</v>
+        <v>10860.84456560564</v>
       </c>
       <c r="AE22" t="n">
-        <v>6371.63620900882</v>
+        <v>4254.848767580791</v>
       </c>
       <c r="AF22" t="n">
-        <v>2434.774291686088</v>
+        <v>393.432310063395</v>
       </c>
       <c r="AG22" t="n">
-        <v>227.6709745086406</v>
+        <v>1074.570528307651</v>
       </c>
       <c r="AH22" t="n">
-        <v>580.8709980027593</v>
+        <v>52.50715303807222</v>
       </c>
       <c r="AI22" t="n">
-        <v>31.2530977401339</v>
+        <v>5329.43256442949</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3015.645289688847</v>
+        <v>445.9412985292438</v>
       </c>
       <c r="AK22" t="n">
-        <v>258.9240722487745</v>
+        <v>603.6204057993069</v>
       </c>
       <c r="AL22" t="n">
-        <v>361.3857743688235</v>
+        <v>32.65841065349946</v>
       </c>
       <c r="AM22" t="n">
-        <v>19.11057382256768</v>
+        <v>421.2036683569733</v>
       </c>
       <c r="AN22" t="n">
-        <v>256.7309207153331</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>46.03006426588733</v>
+        <v>81.40997028048714</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>148.5751364662396</v>
       </c>
       <c r="O23" t="n">
-        <v>347.4468998390036</v>
+        <v>54392.77098272316</v>
       </c>
       <c r="P23" t="n">
-        <v>38948.16072851115</v>
+        <v>1813.094773668234</v>
       </c>
       <c r="Q23" t="n">
-        <v>1813.094773668234</v>
+        <v>10448.2031593219</v>
       </c>
       <c r="R23" t="n">
-        <v>6634.255533269102</v>
+        <v>3761.374120491967</v>
       </c>
       <c r="S23" t="n">
-        <v>2302.543850810368</v>
+        <v>340.9842896102429</v>
       </c>
       <c r="T23" t="n">
-        <v>201.9861360037617</v>
+        <v>1183.383209128464</v>
       </c>
       <c r="U23" t="n">
-        <v>689.9363149546225</v>
+        <v>58.40936163515067</v>
       </c>
       <c r="V23" t="n">
-        <v>34.31046183925631</v>
+        <v>4944.751562590418</v>
       </c>
       <c r="W23" t="n">
-        <v>2992.48016576499</v>
+        <v>399.387963191216</v>
       </c>
       <c r="X23" t="n">
-        <v>236.296597843018</v>
+        <v>531.8185965473209</v>
       </c>
       <c r="Y23" t="n">
-        <v>375.9731723183757</v>
+        <v>37.59739285861635</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.62798866290028</v>
+        <v>360.9361579880836</v>
       </c>
       <c r="AA23" t="n">
-        <v>270.7607030632454</v>
+        <v>65.71439679942407</v>
       </c>
       <c r="AB23" t="n">
-        <v>39.05115297278638</v>
+        <v>51873.37920174333</v>
       </c>
       <c r="AC23" t="n">
-        <v>34207.47425134218</v>
+        <v>1729.117062300615</v>
       </c>
       <c r="AD23" t="n">
-        <v>1729.117062300615</v>
+        <v>10076.19972820261</v>
       </c>
       <c r="AE23" t="n">
-        <v>6500.964810213649</v>
+        <v>4049.588662598583</v>
       </c>
       <c r="AF23" t="n">
-        <v>2487.207525588433</v>
+        <v>355.4815117751403</v>
       </c>
       <c r="AG23" t="n">
-        <v>223.1806429981937</v>
+        <v>1053.647212670005</v>
       </c>
       <c r="AH23" t="n">
-        <v>610.814024031795</v>
+        <v>49.00452459165763</v>
       </c>
       <c r="AI23" t="n">
-        <v>29.90309520400575</v>
+        <v>5103.230144436415</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3098.021549620228</v>
+        <v>404.4878946308922</v>
       </c>
       <c r="AK23" t="n">
-        <v>253.0837382021994</v>
+        <v>586.8043260679023</v>
       </c>
       <c r="AL23" t="n">
-        <v>386.4946616879095</v>
+        <v>32.54826592814129</v>
       </c>
       <c r="AM23" t="n">
-        <v>19.05951284071289</v>
+        <v>429.4998353916316</v>
       </c>
       <c r="AN23" t="n">
-        <v>285.9314713308322</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>48.9377037231047</v>
+        <v>80.08871829588418</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>157.0453674323867</v>
       </c>
       <c r="O24" t="n">
-        <v>347.6213503142591</v>
+        <v>53213.60981491646</v>
       </c>
       <c r="P24" t="n">
-        <v>40019.9715760761</v>
+        <v>1773.792555190626</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.792555190626</v>
+        <v>8886.917198750565</v>
       </c>
       <c r="R24" t="n">
-        <v>6404.555868959511</v>
+        <v>3319.274730774306</v>
       </c>
       <c r="S24" t="n">
-        <v>2326.141130259276</v>
+        <v>317.8889007194921</v>
       </c>
       <c r="T24" t="n">
-        <v>222.7495325668038</v>
+        <v>1199.923513282155</v>
       </c>
       <c r="U24" t="n">
-        <v>845.6808574196612</v>
+        <v>55.95889622664798</v>
       </c>
       <c r="V24" t="n">
-        <v>40.91721179903958</v>
+        <v>4519.194499830455</v>
       </c>
       <c r="W24" t="n">
-        <v>3171.821987678938</v>
+        <v>373.8515681572304</v>
       </c>
       <c r="X24" t="n">
-        <v>263.6667443658434</v>
+        <v>547.267122623487</v>
       </c>
       <c r="Y24" t="n">
-        <v>408.776696725991</v>
+        <v>36.11862239112386</v>
       </c>
       <c r="Z24" t="n">
-        <v>23.5191611727028</v>
+        <v>391.6407385015556</v>
       </c>
       <c r="AA24" t="n">
-        <v>299.6406859052602</v>
+        <v>59.69197184233259</v>
       </c>
       <c r="AB24" t="n">
-        <v>42.51377691534847</v>
+        <v>53028.80561880855</v>
       </c>
       <c r="AC24" t="n">
-        <v>33619.37794231432</v>
+        <v>1767.623983415525</v>
       </c>
       <c r="AD24" t="n">
-        <v>1767.623983415525</v>
+        <v>10269.60370637386</v>
       </c>
       <c r="AE24" t="n">
-        <v>6320.578406419261</v>
+        <v>3871.468758086364</v>
       </c>
       <c r="AF24" t="n">
-        <v>2279.850772366452</v>
+        <v>356.2463455727244</v>
       </c>
       <c r="AG24" t="n">
-        <v>212.3609299877498</v>
+        <v>907.3742188734277</v>
       </c>
       <c r="AH24" t="n">
-        <v>542.6607123500193</v>
+        <v>45.28251496011515</v>
       </c>
       <c r="AI24" t="n">
-        <v>27.45156239477507</v>
+        <v>4778.850512941687</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2822.511484716472</v>
+        <v>401.523178967538</v>
       </c>
       <c r="AK24" t="n">
-        <v>239.8124923825249</v>
+        <v>623.4676153557272</v>
       </c>
       <c r="AL24" t="n">
-        <v>396.8227671055912</v>
+        <v>32.31891560615328</v>
       </c>
       <c r="AM24" t="n">
-        <v>19.98068109053031</v>
+        <v>462.0161003240048</v>
       </c>
       <c r="AN24" t="n">
-        <v>294.4275735444663</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>46.95100591066093</v>
+        <v>74.59592089008781</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>153.9567149188937</v>
       </c>
       <c r="O25" t="n">
-        <v>371.6906010051435</v>
+        <v>54733.2583191653</v>
       </c>
       <c r="P25" t="n">
-        <v>37886.22690034685</v>
+        <v>1824.439299178783</v>
       </c>
       <c r="Q25" t="n">
-        <v>1824.439299178783</v>
+        <v>9464.782573973915</v>
       </c>
       <c r="R25" t="n">
-        <v>6258.124677596931</v>
+        <v>3911.293646666742</v>
       </c>
       <c r="S25" t="n">
-        <v>2472.627746272428</v>
+        <v>355.7076024830487</v>
       </c>
       <c r="T25" t="n">
-        <v>229.9711960291312</v>
+        <v>1187.193226154806</v>
       </c>
       <c r="U25" t="n">
-        <v>797.5683075004212</v>
+        <v>56.63511213590967</v>
       </c>
       <c r="V25" t="n">
-        <v>40.01452763181551</v>
+        <v>5098.490786719356</v>
       </c>
       <c r="W25" t="n">
-        <v>3270.19605377285</v>
+        <v>412.3424580190087</v>
       </c>
       <c r="X25" t="n">
-        <v>269.9857236609467</v>
+        <v>570.796321041654</v>
       </c>
       <c r="Y25" t="n">
-        <v>383.1032537270424</v>
+        <v>38.29339279486911</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.27795620106703</v>
+        <v>389.4946116417104</v>
       </c>
       <c r="AA25" t="n">
-        <v>273.477152517471</v>
+        <v>62.87210477938696</v>
       </c>
       <c r="AB25" t="n">
-        <v>40.71352886659569</v>
+        <v>57787.21192449004</v>
       </c>
       <c r="AC25" t="n">
-        <v>33418.54515357239</v>
+        <v>1926.237266669251</v>
       </c>
       <c r="AD25" t="n">
-        <v>1926.237266669251</v>
+        <v>11767.12826459544</v>
       </c>
       <c r="AE25" t="n">
-        <v>6687.119355790039</v>
+        <v>4698.581541553979</v>
       </c>
       <c r="AF25" t="n">
-        <v>2629.986143988596</v>
+        <v>402.0754716986979</v>
       </c>
       <c r="AG25" t="n">
-        <v>227.8203740204503</v>
+        <v>1200.027792103184</v>
       </c>
       <c r="AH25" t="n">
-        <v>640.381143938481</v>
+        <v>54.92880058713754</v>
       </c>
       <c r="AI25" t="n">
-        <v>31.79716626578217</v>
+        <v>5898.595813824507</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3270.367287927077</v>
+        <v>457.0064189359796</v>
       </c>
       <c r="AK25" t="n">
-        <v>259.6175402862325</v>
+        <v>646.0527633450941</v>
       </c>
       <c r="AL25" t="n">
-        <v>375.9042520320453</v>
+        <v>34.70522089322931</v>
       </c>
       <c r="AM25" t="n">
-        <v>18.41377336631829</v>
+        <v>448.0404366699324</v>
       </c>
       <c r="AN25" t="n">
-        <v>266.1026382569509</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>43.5118434077274</v>
+        <v>81.64797382411533</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>162.3100621300744</v>
       </c>
       <c r="O26" t="n">
-        <v>380.9157003038429</v>
+        <v>55062.64848756111</v>
       </c>
       <c r="P26" t="n">
-        <v>35805.78301608594</v>
+        <v>1835.415712941798</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.415712941798</v>
+        <v>9610.007407501247</v>
       </c>
       <c r="R26" t="n">
-        <v>5735.059339000106</v>
+        <v>4291.411175059048</v>
       </c>
       <c r="S26" t="n">
-        <v>2362.511226057788</v>
+        <v>396.8525653870888</v>
       </c>
       <c r="T26" t="n">
-        <v>226.1732394883454</v>
+        <v>1593.01736419633</v>
       </c>
       <c r="U26" t="n">
-        <v>916.7996108262799</v>
+        <v>73.55542236221444</v>
       </c>
       <c r="V26" t="n">
-        <v>44.14128234000002</v>
+        <v>5884.415080854276</v>
       </c>
       <c r="W26" t="n">
-        <v>3279.310836884068</v>
+        <v>470.4080321327459</v>
       </c>
       <c r="X26" t="n">
-        <v>270.3145218283454</v>
+        <v>580.5306096721184</v>
       </c>
       <c r="Y26" t="n">
-        <v>360.6487679116705</v>
+        <v>37.47343861430353</v>
       </c>
       <c r="Z26" t="n">
-        <v>25.48435143088194</v>
+        <v>387.8493598690686</v>
       </c>
       <c r="AA26" t="n">
-        <v>256.1268085559483</v>
+        <v>68.10604256754134</v>
       </c>
       <c r="AB26" t="n">
-        <v>43.17266173146457</v>
+        <v>57658.96139785556</v>
       </c>
       <c r="AC26" t="n">
-        <v>36259.87630511816</v>
+        <v>1921.961076152092</v>
       </c>
       <c r="AD26" t="n">
-        <v>1921.961076152092</v>
+        <v>11347.15587087726</v>
       </c>
       <c r="AE26" t="n">
-        <v>6971.456786789949</v>
+        <v>4338.161748562584</v>
       </c>
       <c r="AF26" t="n">
-        <v>2523.96515036284</v>
+        <v>410.9964637368679</v>
       </c>
       <c r="AG26" t="n">
-        <v>239.6590956789979</v>
+        <v>1114.066894932948</v>
       </c>
       <c r="AH26" t="n">
-        <v>605.8995522568932</v>
+        <v>57.63873248609915</v>
       </c>
       <c r="AI26" t="n">
-        <v>32.0156960204204</v>
+        <v>5452.240102791044</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3129.864702619733</v>
+        <v>468.6350698432063</v>
       </c>
       <c r="AK26" t="n">
-        <v>271.6747916994183</v>
+        <v>622.9671093144167</v>
       </c>
       <c r="AL26" t="n">
-        <v>392.7162686143321</v>
+        <v>32.83739766210957</v>
       </c>
       <c r="AM26" t="n">
-        <v>21.22057626063966</v>
+        <v>455.0125662919254</v>
       </c>
       <c r="AN26" t="n">
-        <v>289.9522527635575</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>51.04136462049533</v>
+        <v>89.98627027973137</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>139.8606335443137</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9921175880157</v>
+        <v>54291.08743140975</v>
       </c>
       <c r="P27" t="n">
-        <v>37414.89193642738</v>
+        <v>1809.715596463625</v>
       </c>
       <c r="Q27" t="n">
-        <v>1809.715596463625</v>
+        <v>8973.705676154117</v>
       </c>
       <c r="R27" t="n">
-        <v>5999.737831873954</v>
+        <v>3822.437677218442</v>
       </c>
       <c r="S27" t="n">
-        <v>2331.442845616727</v>
+        <v>328.9494139621825</v>
       </c>
       <c r="T27" t="n">
-        <v>207.9745960411788</v>
+        <v>1264.889946899341</v>
       </c>
       <c r="U27" t="n">
-        <v>716.9644325547752</v>
+        <v>63.23166130423076</v>
       </c>
       <c r="V27" t="n">
-        <v>36.34095164786898</v>
+        <v>5087.324463480629</v>
       </c>
       <c r="W27" t="n">
-        <v>3048.407278171502</v>
+        <v>392.190680586705</v>
       </c>
       <c r="X27" t="n">
-        <v>244.3155476890477</v>
+        <v>538.1220017355249</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.607030997619</v>
+        <v>37.63029648068427</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.20195446052285</v>
+        <v>383.820393078736</v>
       </c>
       <c r="AA27" t="n">
-        <v>267.3980280428525</v>
+        <v>65.91592538352916</v>
       </c>
       <c r="AB27" t="n">
-        <v>35.96398763486244</v>
+        <v>60771.78043041507</v>
       </c>
       <c r="AC27" t="n">
-        <v>33507.32643116356</v>
+        <v>2025.725258066978</v>
       </c>
       <c r="AD27" t="n">
-        <v>2025.725258066978</v>
+        <v>12887.7754049164</v>
       </c>
       <c r="AE27" t="n">
-        <v>6936.501175525154</v>
+        <v>4743.024512140185</v>
       </c>
       <c r="AF27" t="n">
-        <v>2550.893808810771</v>
+        <v>415.5208955014373</v>
       </c>
       <c r="AG27" t="n">
-        <v>228.1621492095243</v>
+        <v>1088.199130869018</v>
       </c>
       <c r="AH27" t="n">
-        <v>570.2755153604937</v>
+        <v>56.18417935026316</v>
       </c>
       <c r="AI27" t="n">
-        <v>31.24972673389047</v>
+        <v>5831.210921989873</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3121.169324171265</v>
+        <v>471.7177650188235</v>
       </c>
       <c r="AK27" t="n">
-        <v>259.4118759434147</v>
+        <v>624.9926204278084</v>
       </c>
       <c r="AL27" t="n">
-        <v>358.1891680549847</v>
+        <v>31.01305834332013</v>
       </c>
       <c r="AM27" t="n">
-        <v>18.01636750161439</v>
+        <v>488.6992849631023</v>
       </c>
       <c r="AN27" t="n">
-        <v>268.8334231885364</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>46.27591094970719</v>
+        <v>87.41899532422583</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>151.6517264924584</v>
       </c>
       <c r="O28" t="n">
-        <v>363.2285207589408</v>
+        <v>54911.8450907345</v>
       </c>
       <c r="P28" t="n">
-        <v>41761.27651127194</v>
+        <v>1830.390802639992</v>
       </c>
       <c r="Q28" t="n">
-        <v>1830.390802639992</v>
+        <v>9020.2814706966</v>
       </c>
       <c r="R28" t="n">
-        <v>6602.14006523006</v>
+        <v>3566.194624522131</v>
       </c>
       <c r="S28" t="n">
-        <v>2314.533644221617</v>
+        <v>353.089652292974</v>
       </c>
       <c r="T28" t="n">
-        <v>229.6438712494983</v>
+        <v>1600.95092800589</v>
       </c>
       <c r="U28" t="n">
-        <v>809.0097307761029</v>
+        <v>69.36545576541326</v>
       </c>
       <c r="V28" t="n">
-        <v>41.55147172612681</v>
+        <v>5167.153039664825</v>
       </c>
       <c r="W28" t="n">
-        <v>3123.543374997719</v>
+        <v>422.4665460606904</v>
       </c>
       <c r="X28" t="n">
-        <v>271.1953429756251</v>
+        <v>575.4046624649883</v>
       </c>
       <c r="Y28" t="n">
-        <v>422.8566931436414</v>
+        <v>32.92477311162333</v>
       </c>
       <c r="Z28" t="n">
-        <v>23.63852689255491</v>
+        <v>397.9342962052173</v>
       </c>
       <c r="AA28" t="n">
-        <v>306.9525027755886</v>
+        <v>57.0405222689306</v>
       </c>
       <c r="AB28" t="n">
-        <v>40.27318267240656</v>
+        <v>58049.31362406436</v>
       </c>
       <c r="AC28" t="n">
-        <v>34360.67495294251</v>
+        <v>1934.979502244196</v>
       </c>
       <c r="AD28" t="n">
-        <v>1934.979502244196</v>
+        <v>11505.76255667737</v>
       </c>
       <c r="AE28" t="n">
-        <v>6632.724540743967</v>
+        <v>4434.191430408141</v>
       </c>
       <c r="AF28" t="n">
-        <v>2503.604352327244</v>
+        <v>389.8420092395018</v>
       </c>
       <c r="AG28" t="n">
-        <v>222.6457775017578</v>
+        <v>1032.871657785536</v>
       </c>
       <c r="AH28" t="n">
-        <v>551.5058539027432</v>
+        <v>52.96787360085543</v>
       </c>
       <c r="AI28" t="n">
-        <v>30.17354339320153</v>
+        <v>5467.066758082886</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3055.110206229988</v>
+        <v>442.8174720401579</v>
       </c>
       <c r="AK28" t="n">
-        <v>252.8193208949593</v>
+        <v>631.635476200066</v>
       </c>
       <c r="AL28" t="n">
-        <v>378.5992261634964</v>
+        <v>33.93865103305958</v>
       </c>
       <c r="AM28" t="n">
-        <v>19.63579156831189</v>
+        <v>464.1093253680262</v>
       </c>
       <c r="AN28" t="n">
-        <v>279.5092349867671</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>48.06351253050411</v>
+        <v>85.51778685672124</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>154.1253562273703</v>
       </c>
       <c r="O29" t="n">
-        <v>385.5958033381523</v>
+        <v>57929.06737669937</v>
       </c>
       <c r="P29" t="n">
-        <v>40806.27687363727</v>
+        <v>1930.964665651543</v>
       </c>
       <c r="Q29" t="n">
-        <v>1930.964665651543</v>
+        <v>9688.582918176133</v>
       </c>
       <c r="R29" t="n">
-        <v>6422.618050646224</v>
+        <v>3757.714808498602</v>
       </c>
       <c r="S29" t="n">
-        <v>2454.891576381252</v>
+        <v>356.8297851142465</v>
       </c>
       <c r="T29" t="n">
-        <v>229.1215828442005</v>
+        <v>1234.205359203815</v>
       </c>
       <c r="U29" t="n">
-        <v>841.5747297728583</v>
+        <v>66.04466571870289</v>
       </c>
       <c r="V29" t="n">
-        <v>42.52229399454261</v>
+        <v>4991.917813671427</v>
       </c>
       <c r="W29" t="n">
-        <v>3296.46630615411</v>
+        <v>422.8798929949941</v>
       </c>
       <c r="X29" t="n">
-        <v>271.6438768387431</v>
+        <v>612.0498013513932</v>
       </c>
       <c r="Y29" t="n">
-        <v>416.1795434453841</v>
+        <v>40.21969250034076</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.41297112475912</v>
+        <v>440.1357286523753</v>
       </c>
       <c r="AA29" t="n">
-        <v>302.0729456039194</v>
+        <v>69.34090234466939</v>
       </c>
       <c r="AB29" t="n">
-        <v>45.02297357495677</v>
+        <v>58136.94403433295</v>
       </c>
       <c r="AC29" t="n">
-        <v>31829.83668496106</v>
+        <v>1937.891569351251</v>
       </c>
       <c r="AD29" t="n">
-        <v>1937.891569351251</v>
+        <v>10863.96047842229</v>
       </c>
       <c r="AE29" t="n">
-        <v>5892.782898559578</v>
+        <v>4887.38430442865</v>
       </c>
       <c r="AF29" t="n">
-        <v>2534.838175670573</v>
+        <v>445.3950443271856</v>
       </c>
       <c r="AG29" t="n">
-        <v>231.7770273451805</v>
+        <v>1365.334433597844</v>
       </c>
       <c r="AH29" t="n">
-        <v>720.6286416605369</v>
+        <v>68.95684432743249</v>
       </c>
       <c r="AI29" t="n">
-        <v>36.11779159396423</v>
+        <v>6252.71678619915</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3255.46681733111</v>
+        <v>514.3383418237166</v>
       </c>
       <c r="AK29" t="n">
-        <v>267.8948189391447</v>
+        <v>630.6526819397308</v>
       </c>
       <c r="AL29" t="n">
-        <v>352.4024047882103</v>
+        <v>40.86725684765079</v>
       </c>
       <c r="AM29" t="n">
-        <v>19.52279539097782</v>
+        <v>442.4542276710412</v>
       </c>
       <c r="AN29" t="n">
-        <v>252.2159618244428</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>45.24353280926414</v>
+        <v>94.97849700840206</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>160.9040028517968</v>
       </c>
       <c r="O30" t="n">
-        <v>382.7662944066968</v>
+        <v>57875.99283173253</v>
       </c>
       <c r="P30" t="n">
-        <v>43081.25465971731</v>
+        <v>1929.204183774196</v>
       </c>
       <c r="Q30" t="n">
-        <v>1929.204183774196</v>
+        <v>9547.121321020115</v>
       </c>
       <c r="R30" t="n">
-        <v>6779.134394183677</v>
+        <v>4017.049047449887</v>
       </c>
       <c r="S30" t="n">
-        <v>2617.166949160477</v>
+        <v>354.3155209976068</v>
       </c>
       <c r="T30" t="n">
-        <v>245.6099549481742</v>
+        <v>1392.834887797756</v>
       </c>
       <c r="U30" t="n">
-        <v>893.0357442629108</v>
+        <v>60.38007875120856</v>
       </c>
       <c r="V30" t="n">
-        <v>43.59195480583089</v>
+        <v>5409.885884651861</v>
       </c>
       <c r="W30" t="n">
-        <v>3510.202693423387</v>
+        <v>414.6975165271608</v>
       </c>
       <c r="X30" t="n">
-        <v>289.2019097540052</v>
+        <v>574.9791521965866</v>
       </c>
       <c r="Y30" t="n">
-        <v>421.3280423377325</v>
+        <v>37.2655991771425</v>
       </c>
       <c r="Z30" t="n">
-        <v>26.95983896494081</v>
+        <v>419.2241684156235</v>
       </c>
       <c r="AA30" t="n">
-        <v>312.91582211133</v>
+        <v>62.38686177690495</v>
       </c>
       <c r="AB30" t="n">
-        <v>45.93138799448683</v>
+        <v>58980.67932170692</v>
       </c>
       <c r="AC30" t="n">
-        <v>32229.355428519</v>
+        <v>1966.017741171404</v>
       </c>
       <c r="AD30" t="n">
-        <v>1966.017741171404</v>
+        <v>11172.59801632663</v>
       </c>
       <c r="AE30" t="n">
-        <v>5926.738648115917</v>
+        <v>4172.122830816229</v>
       </c>
       <c r="AF30" t="n">
-        <v>2144.359963265527</v>
+        <v>392.0047687651696</v>
       </c>
       <c r="AG30" t="n">
-        <v>207.9508576899234</v>
+        <v>1125.980502191181</v>
       </c>
       <c r="AH30" t="n">
-        <v>560.6552433480239</v>
+        <v>61.24826984750501</v>
       </c>
       <c r="AI30" t="n">
-        <v>31.06882083343652</v>
+        <v>5298.107276124589</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2705.015206613551</v>
+        <v>453.2607522309045</v>
       </c>
       <c r="AK30" t="n">
-        <v>239.0196785233599</v>
+        <v>641.7158093439781</v>
       </c>
       <c r="AL30" t="n">
-        <v>356.1231499029485</v>
+        <v>33.52619565455425</v>
       </c>
       <c r="AM30" t="n">
-        <v>19.71174338597685</v>
+        <v>467.1403355734911</v>
       </c>
       <c r="AN30" t="n">
-        <v>258.6513044589219</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>48.60489012184613</v>
+        <v>89.4672006659289</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>147.2269680841107</v>
       </c>
       <c r="O31" t="n">
-        <v>367.3997825283977</v>
+        <v>51883.90800031122</v>
       </c>
       <c r="P31" t="n">
-        <v>36865.21338566371</v>
+        <v>1729.462763015846</v>
       </c>
       <c r="Q31" t="n">
-        <v>1729.462763015846</v>
+        <v>8662.085036252533</v>
       </c>
       <c r="R31" t="n">
-        <v>5793.407907304345</v>
+        <v>3347.007964759973</v>
       </c>
       <c r="S31" t="n">
-        <v>2169.727408401621</v>
+        <v>310.2276327650994</v>
       </c>
       <c r="T31" t="n">
-        <v>202.0793154308754</v>
+        <v>1047.960174718442</v>
       </c>
       <c r="U31" t="n">
-        <v>682.6139861214688</v>
+        <v>49.01116547554675</v>
       </c>
       <c r="V31" t="n">
-        <v>34.04587573332564</v>
+        <v>4394.964423439965</v>
       </c>
       <c r="W31" t="n">
-        <v>2852.34139452309</v>
+        <v>359.2386410093693</v>
       </c>
       <c r="X31" t="n">
-        <v>236.125191164201</v>
+        <v>536.7273813753833</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.5012432526036</v>
+        <v>35.73267895328834</v>
       </c>
       <c r="Z31" t="n">
-        <v>25.35520671662463</v>
+        <v>390.7364122442326</v>
       </c>
       <c r="AA31" t="n">
-        <v>281.5178409755356</v>
+        <v>57.49279997672877</v>
       </c>
       <c r="AB31" t="n">
-        <v>38.58444462744852</v>
+        <v>57489.92200490423</v>
       </c>
       <c r="AC31" t="n">
-        <v>33511.68085098725</v>
+        <v>1916.329497324899</v>
       </c>
       <c r="AD31" t="n">
-        <v>1916.329497324899</v>
+        <v>11573.69569628287</v>
       </c>
       <c r="AE31" t="n">
-        <v>6340.376579157498</v>
+        <v>4499.502057346968</v>
       </c>
       <c r="AF31" t="n">
-        <v>2442.011034093749</v>
+        <v>421.1577236354859</v>
       </c>
       <c r="AG31" t="n">
-        <v>227.0686912900179</v>
+        <v>1211.306274446637</v>
       </c>
       <c r="AH31" t="n">
-        <v>646.811670376683</v>
+        <v>60.90341612732915</v>
       </c>
       <c r="AI31" t="n">
-        <v>31.97196563302339</v>
+        <v>5710.815740910773</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3088.822704470432</v>
+        <v>482.0479859044248</v>
       </c>
       <c r="AK31" t="n">
-        <v>259.0406569230412</v>
+        <v>590.7247689309794</v>
       </c>
       <c r="AL31" t="n">
-        <v>345.8858598090709</v>
+        <v>33.31777686121804</v>
       </c>
       <c r="AM31" t="n">
-        <v>20.44365556704151</v>
+        <v>405.1616920456912</v>
       </c>
       <c r="AN31" t="n">
-        <v>245.151691420402</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>43.29916261569504</v>
+        <v>77.03865812530974</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>157.2096698713741</v>
       </c>
       <c r="O32" t="n">
-        <v>350.6130491084114</v>
+        <v>49832.99438767992</v>
       </c>
       <c r="P32" t="n">
-        <v>39717.44087395377</v>
+        <v>1661.105271616764</v>
       </c>
       <c r="Q32" t="n">
-        <v>1661.105271616764</v>
+        <v>8236.15092751364</v>
       </c>
       <c r="R32" t="n">
-        <v>6370.389589770498</v>
+        <v>3268.346556512774</v>
       </c>
       <c r="S32" t="n">
-        <v>2397.052877395805</v>
+        <v>294.6521568321674</v>
       </c>
       <c r="T32" t="n">
-        <v>220.0089161805899</v>
+        <v>1036.785018823028</v>
       </c>
       <c r="U32" t="n">
-        <v>724.0962336235443</v>
+        <v>55.72624276982127</v>
       </c>
       <c r="V32" t="n">
-        <v>40.01247651807618</v>
+        <v>4305.120178913688</v>
       </c>
       <c r="W32" t="n">
-        <v>3121.149111019349</v>
+        <v>350.3765020389102</v>
       </c>
       <c r="X32" t="n">
-        <v>260.021392698666</v>
+        <v>490.9087860560704</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.4983704521239</v>
+        <v>31.55475596835971</v>
       </c>
       <c r="Z32" t="n">
-        <v>23.6150586646539</v>
+        <v>339.5945876551505</v>
       </c>
       <c r="AA32" t="n">
-        <v>279.1893991074889</v>
+        <v>58.9814989286883</v>
       </c>
       <c r="AB32" t="n">
-        <v>42.19365528733778</v>
+        <v>55121.93730977595</v>
       </c>
       <c r="AC32" t="n">
-        <v>38064.08121907221</v>
+        <v>1837.400612409511</v>
       </c>
       <c r="AD32" t="n">
-        <v>1837.400612409511</v>
+        <v>11087.08589271074</v>
       </c>
       <c r="AE32" t="n">
-        <v>7376.842028601395</v>
+        <v>4082.394792233409</v>
       </c>
       <c r="AF32" t="n">
-        <v>2693.116386301724</v>
+        <v>356.7765215616819</v>
       </c>
       <c r="AG32" t="n">
-        <v>236.2136519975043</v>
+        <v>935.5086462970097</v>
       </c>
       <c r="AH32" t="n">
-        <v>610.6986423619849</v>
+        <v>45.50373428385451</v>
       </c>
       <c r="AI32" t="n">
-        <v>30.50580604094706</v>
+        <v>5017.901520296106</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3303.815028663709</v>
+        <v>402.2744489641577</v>
       </c>
       <c r="AK32" t="n">
-        <v>266.7194580384513</v>
+        <v>583.7988702994905</v>
       </c>
       <c r="AL32" t="n">
-        <v>410.525257656518</v>
+        <v>32.24219844948307</v>
       </c>
       <c r="AM32" t="n">
-        <v>19.26759491649037</v>
+        <v>431.9916594078362</v>
       </c>
       <c r="AN32" t="n">
-        <v>302.7288518954859</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>47.72858230274997</v>
+        <v>67.91269009662649</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>148.6678727172466</v>
       </c>
       <c r="O33" t="n">
-        <v>344.4749418562986</v>
+        <v>51857.9733763546</v>
       </c>
       <c r="P33" t="n">
-        <v>36519.40810530095</v>
+        <v>1728.593240541455</v>
       </c>
       <c r="Q33" t="n">
-        <v>1728.593240541455</v>
+        <v>8768.951985106496</v>
       </c>
       <c r="R33" t="n">
-        <v>5828.632638278932</v>
+        <v>3528.310407306041</v>
       </c>
       <c r="S33" t="n">
-        <v>2145.473820027249</v>
+        <v>342.742540905908</v>
       </c>
       <c r="T33" t="n">
-        <v>209.4094244630864</v>
+        <v>1114.690624057146</v>
       </c>
       <c r="U33" t="n">
-        <v>639.0703856255079</v>
+        <v>60.07507361354959</v>
       </c>
       <c r="V33" t="n">
-        <v>35.49639832263414</v>
+        <v>4643.001042757751</v>
       </c>
       <c r="W33" t="n">
-        <v>2784.544205652757</v>
+        <v>402.8234350234338</v>
       </c>
       <c r="X33" t="n">
-        <v>244.9058227857205</v>
+        <v>577.3284113418906</v>
       </c>
       <c r="Y33" t="n">
-        <v>389.7536401248165</v>
+        <v>37.92542629825568</v>
       </c>
       <c r="Z33" t="n">
-        <v>23.62366862975806</v>
+        <v>376.8946866878102</v>
       </c>
       <c r="AA33" t="n">
-        <v>271.0505656886619</v>
+        <v>61.56612544564864</v>
       </c>
       <c r="AB33" t="n">
-        <v>38.76380113322328</v>
+        <v>53140.93960825007</v>
       </c>
       <c r="AC33" t="n">
-        <v>34769.20880711325</v>
+        <v>1771.36016493981</v>
       </c>
       <c r="AD33" t="n">
-        <v>1771.36016493981</v>
+        <v>10364.92227056397</v>
       </c>
       <c r="AE33" t="n">
-        <v>6649.019818517443</v>
+        <v>4208.600151769884</v>
       </c>
       <c r="AF33" t="n">
-        <v>2636.054840179635</v>
+        <v>376.4559192604644</v>
       </c>
       <c r="AG33" t="n">
-        <v>239.4306409749558</v>
+        <v>1107.468874792451</v>
       </c>
       <c r="AH33" t="n">
-        <v>639.2830028069717</v>
+        <v>52.53142760358213</v>
       </c>
       <c r="AI33" t="n">
-        <v>33.51313479985201</v>
+        <v>5316.072768209131</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3275.337842986606</v>
+        <v>428.99116892072</v>
       </c>
       <c r="AK33" t="n">
-        <v>272.9437757748077</v>
+        <v>580.8578584712943</v>
       </c>
       <c r="AL33" t="n">
-        <v>388.0361688056545</v>
+        <v>34.3309884528859</v>
       </c>
       <c r="AM33" t="n">
-        <v>21.13235455152994</v>
+        <v>426.9747102745343</v>
       </c>
       <c r="AN33" t="n">
-        <v>284.0517864897316</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>48.60148306717722</v>
+        <v>75.43336463462465</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>154.6730434138866</v>
       </c>
       <c r="O34" t="n">
-        <v>382.4167408753298</v>
+        <v>52199.54748594519</v>
       </c>
       <c r="P34" t="n">
-        <v>40214.9550106245</v>
+        <v>1739.989581527018</v>
       </c>
       <c r="Q34" t="n">
-        <v>1739.989581527018</v>
+        <v>7545.525546090557</v>
       </c>
       <c r="R34" t="n">
-        <v>5628.109867468437</v>
+        <v>2873.747194038527</v>
       </c>
       <c r="S34" t="n">
-        <v>1981.068697256082</v>
+        <v>280.1965592920016</v>
       </c>
       <c r="T34" t="n">
-        <v>197.8190410170945</v>
+        <v>1093.56671160107</v>
       </c>
       <c r="U34" t="n">
-        <v>652.4412391699531</v>
+        <v>41.58240623954839</v>
       </c>
       <c r="V34" t="n">
-        <v>29.01844008203508</v>
+        <v>3967.333045756551</v>
       </c>
       <c r="W34" t="n">
-        <v>2633.509936426035</v>
+        <v>321.7759148300506</v>
       </c>
       <c r="X34" t="n">
-        <v>226.8374810991296</v>
+        <v>519.2782734803535</v>
       </c>
       <c r="Y34" t="n">
-        <v>397.5430972965428</v>
+        <v>27.19812977367529</v>
       </c>
       <c r="Z34" t="n">
-        <v>20.44367246329894</v>
+        <v>406.2444471735342</v>
       </c>
       <c r="AA34" t="n">
-        <v>307.3522659113382</v>
+        <v>52.7705652842751</v>
       </c>
       <c r="AB34" t="n">
-        <v>39.94788656097576</v>
+        <v>56740.6545223111</v>
       </c>
       <c r="AC34" t="n">
-        <v>33464.5733328883</v>
+        <v>1891.352336856403</v>
       </c>
       <c r="AD34" t="n">
-        <v>1891.352336856403</v>
+        <v>10515.11149063327</v>
       </c>
       <c r="AE34" t="n">
-        <v>5988.841552393397</v>
+        <v>3941.755558645664</v>
       </c>
       <c r="AF34" t="n">
-        <v>2172.543490041495</v>
+        <v>360.4551293853686</v>
       </c>
       <c r="AG34" t="n">
-        <v>210.6168730646342</v>
+        <v>1017.275983789146</v>
       </c>
       <c r="AH34" t="n">
-        <v>537.6249583852796</v>
+        <v>43.54588636093646</v>
       </c>
       <c r="AI34" t="n">
-        <v>24.60803469484084</v>
+        <v>4959.034701606793</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2710.168448426774</v>
+        <v>404.001025311988</v>
       </c>
       <c r="AK34" t="n">
-        <v>235.224907759475</v>
+        <v>610.6489074007405</v>
       </c>
       <c r="AL34" t="n">
-        <v>363.7844002987408</v>
+        <v>31.2759776578313</v>
       </c>
       <c r="AM34" t="n">
-        <v>20.15487288578934</v>
+        <v>440.7955430875447</v>
       </c>
       <c r="AN34" t="n">
-        <v>262.9991263002087</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>50.82372956977587</v>
+        <v>88.34956001394858</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>147.1602725068311</v>
       </c>
       <c r="O35" t="n">
-        <v>376.0358931325398</v>
+        <v>53976.54181091192</v>
       </c>
       <c r="P35" t="n">
-        <v>33779.98395852034</v>
+        <v>1799.216796571151</v>
       </c>
       <c r="Q35" t="n">
-        <v>1799.216796571151</v>
+        <v>8853.617782776921</v>
       </c>
       <c r="R35" t="n">
-        <v>5216.650089391389</v>
+        <v>3741.927920893891</v>
       </c>
       <c r="S35" t="n">
-        <v>2155.411963403093</v>
+        <v>364.7378494288063</v>
       </c>
       <c r="T35" t="n">
-        <v>204.4694104814041</v>
+        <v>1768.387340132387</v>
       </c>
       <c r="U35" t="n">
-        <v>905.4775861660679</v>
+        <v>75.11597993748745</v>
       </c>
       <c r="V35" t="n">
-        <v>41.56609407702743</v>
+        <v>5510.311353173475</v>
       </c>
       <c r="W35" t="n">
-        <v>3060.889549569161</v>
+        <v>439.8480120830418</v>
       </c>
       <c r="X35" t="n">
-        <v>246.0355045584315</v>
+        <v>548.0750894226564</v>
       </c>
       <c r="Y35" t="n">
-        <v>329.1469591170388</v>
+        <v>38.77421302530065</v>
       </c>
       <c r="Z35" t="n">
-        <v>20.1802360390376</v>
+        <v>377.7170675969491</v>
       </c>
       <c r="AA35" t="n">
-        <v>237.4843097270651</v>
+        <v>64.40306133613457</v>
       </c>
       <c r="AB35" t="n">
-        <v>35.06240773601208</v>
+        <v>56441.24107692919</v>
       </c>
       <c r="AC35" t="n">
-        <v>36166.88683315141</v>
+        <v>1881.375750530111</v>
       </c>
       <c r="AD35" t="n">
-        <v>1881.375750530111</v>
+        <v>10290.78938693283</v>
       </c>
       <c r="AE35" t="n">
-        <v>6452.19824521135</v>
+        <v>4097.933329812437</v>
       </c>
       <c r="AF35" t="n">
-        <v>2499.09299569935</v>
+        <v>383.2013301890281</v>
       </c>
       <c r="AG35" t="n">
-        <v>237.5691952863619</v>
+        <v>1205.283918589581</v>
       </c>
       <c r="AH35" t="n">
-        <v>729.7416290220692</v>
+        <v>60.26845673656234</v>
       </c>
       <c r="AI35" t="n">
-        <v>38.01695499143767</v>
+        <v>5303.222923646955</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3228.834624721419</v>
+        <v>443.4641789491217</v>
       </c>
       <c r="AK35" t="n">
-        <v>275.5861502777997</v>
+        <v>619.325542362576</v>
       </c>
       <c r="AL35" t="n">
-        <v>400.9078693507031</v>
+        <v>30.90359000682876</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.4043754418847</v>
+        <v>444.65295447881</v>
       </c>
       <c r="AN35" t="n">
-        <v>291.3137370523514</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>50.54221822209225</v>
+        <v>79.05813197087365</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>157.0785581787396</v>
       </c>
       <c r="O36" t="n">
-        <v>363.3932442119514</v>
+        <v>52592.96039147774</v>
       </c>
       <c r="P36" t="n">
-        <v>33470.06805112329</v>
+        <v>1753.102448886847</v>
       </c>
       <c r="Q36" t="n">
-        <v>1753.102448886847</v>
+        <v>8327.320293343102</v>
       </c>
       <c r="R36" t="n">
-        <v>5198.933483855014</v>
+        <v>3024.763275678176</v>
       </c>
       <c r="S36" t="n">
-        <v>1867.862480157628</v>
+        <v>287.8218037971714</v>
       </c>
       <c r="T36" t="n">
-        <v>179.6492289771183</v>
+        <v>819.821561757358</v>
       </c>
       <c r="U36" t="n">
-        <v>523.662958346635</v>
+        <v>49.16333683425175</v>
       </c>
       <c r="V36" t="n">
-        <v>30.91431822264818</v>
+        <v>3844.572632906517</v>
       </c>
       <c r="W36" t="n">
-        <v>2391.525438504264</v>
+        <v>336.9851160827203</v>
       </c>
       <c r="X36" t="n">
-        <v>210.5635471997664</v>
+        <v>542.051679391286</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.2515273451563</v>
+        <v>33.77845182309519</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.22381934610486</v>
+        <v>376.5626252759396</v>
       </c>
       <c r="AA36" t="n">
-        <v>241.5345998223292</v>
+        <v>58.65118102941778</v>
       </c>
       <c r="AB36" t="n">
-        <v>34.15837726094751</v>
+        <v>56416.05487434933</v>
       </c>
       <c r="AC36" t="n">
-        <v>35646.51164939097</v>
+        <v>1880.532985515124</v>
       </c>
       <c r="AD36" t="n">
-        <v>1880.532985515124</v>
+        <v>10767.42316744335</v>
       </c>
       <c r="AE36" t="n">
-        <v>6650.073923164044</v>
+        <v>4098.192079498774</v>
       </c>
       <c r="AF36" t="n">
-        <v>2544.742018206091</v>
+        <v>395.2642399808383</v>
       </c>
       <c r="AG36" t="n">
-        <v>245.9250725576723</v>
+        <v>977.3903406564021</v>
       </c>
       <c r="AH36" t="n">
-        <v>635.3268198585291</v>
+        <v>54.42102619369987</v>
       </c>
       <c r="AI36" t="n">
-        <v>36.20994049389786</v>
+        <v>5075.584613673629</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3180.068838064621</v>
+        <v>449.6804862716966</v>
       </c>
       <c r="AK36" t="n">
-        <v>282.1350130515701</v>
+        <v>605.721989197392</v>
       </c>
       <c r="AL36" t="n">
-        <v>387.003095142194</v>
+        <v>32.75279839057904</v>
       </c>
       <c r="AM36" t="n">
-        <v>19.56491597505032</v>
+        <v>444.0280481354067</v>
       </c>
       <c r="AN36" t="n">
-        <v>286.9034444111291</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>54.30779310353878</v>
+        <v>85.53400888553963</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>144.5654719779248</v>
       </c>
       <c r="O37" t="n">
-        <v>356.9719434486482</v>
+        <v>53965.96750839915</v>
       </c>
       <c r="P37" t="n">
-        <v>37683.5749326724</v>
+        <v>1798.855465103634</v>
       </c>
       <c r="Q37" t="n">
-        <v>1798.855465103634</v>
+        <v>9359.806951108987</v>
       </c>
       <c r="R37" t="n">
-        <v>6083.861820157456</v>
+        <v>3361.337960479276</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.143135702809</v>
+        <v>313.9473820108686</v>
       </c>
       <c r="T37" t="n">
-        <v>205.0980050855041</v>
+        <v>1090.108764535503</v>
       </c>
       <c r="U37" t="n">
-        <v>694.2854539776513</v>
+        <v>56.97866557335905</v>
       </c>
       <c r="V37" t="n">
-        <v>37.03828625374031</v>
+        <v>4451.456092801936</v>
       </c>
       <c r="W37" t="n">
-        <v>2879.42858968046</v>
+        <v>370.9335531388834</v>
       </c>
       <c r="X37" t="n">
-        <v>242.1362913392444</v>
+        <v>540.1353253905785</v>
       </c>
       <c r="Y37" t="n">
-        <v>375.1106177857037</v>
+        <v>38.06449670893917</v>
       </c>
       <c r="Z37" t="n">
-        <v>23.90137964930718</v>
+        <v>386.4863999601949</v>
       </c>
       <c r="AA37" t="n">
-        <v>273.9499307537743</v>
+        <v>62.12239697363739</v>
       </c>
       <c r="AB37" t="n">
-        <v>39.51404910600138</v>
+        <v>58052.7697906403</v>
       </c>
       <c r="AC37" t="n">
-        <v>31177.3875123181</v>
+        <v>1935.095525472857</v>
       </c>
       <c r="AD37" t="n">
-        <v>1935.095525472857</v>
+        <v>11964.9436054616</v>
       </c>
       <c r="AE37" t="n">
-        <v>6321.142805283389</v>
+        <v>5011.602678988724</v>
       </c>
       <c r="AF37" t="n">
-        <v>2547.371544494772</v>
+        <v>423.2746971013257</v>
       </c>
       <c r="AG37" t="n">
-        <v>219.8662368615837</v>
+        <v>1532.986276143619</v>
       </c>
       <c r="AH37" t="n">
-        <v>715.8807141741789</v>
+        <v>68.03087747008962</v>
       </c>
       <c r="AI37" t="n">
-        <v>34.32114876255152</v>
+        <v>6544.596585279005</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3263.252258668951</v>
+        <v>491.3110752679335</v>
       </c>
       <c r="AK37" t="n">
-        <v>254.1873856241352</v>
+        <v>638.2102051794138</v>
       </c>
       <c r="AL37" t="n">
-        <v>335.4185978802572</v>
+        <v>40.69938194938111</v>
       </c>
       <c r="AM37" t="n">
-        <v>19.3797491997258</v>
+        <v>443.9398339058894</v>
       </c>
       <c r="AN37" t="n">
-        <v>244.4552284016439</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>41.43552872682345</v>
+        <v>83.59552985538291</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>155.720618485482</v>
       </c>
       <c r="O38" t="n">
-        <v>363.0588917606121</v>
+        <v>50001.44732507722</v>
       </c>
       <c r="P38" t="n">
-        <v>40309.75090567159</v>
+        <v>1666.713611688079</v>
       </c>
       <c r="Q38" t="n">
-        <v>1666.713611688079</v>
+        <v>8034.258123524278</v>
       </c>
       <c r="R38" t="n">
-        <v>6032.58264740907</v>
+        <v>3210.449118490834</v>
       </c>
       <c r="S38" t="n">
-        <v>2373.920343358778</v>
+        <v>310.1858009326945</v>
       </c>
       <c r="T38" t="n">
-        <v>230.7937122706365</v>
+        <v>1101.942738940308</v>
       </c>
       <c r="U38" t="n">
-        <v>812.4766066356428</v>
+        <v>56.52841137286341</v>
       </c>
       <c r="V38" t="n">
-        <v>43.23172714674087</v>
+        <v>4312.391600368065</v>
       </c>
       <c r="W38" t="n">
-        <v>3186.396949994421</v>
+        <v>366.6968641694991</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0254394173774</v>
+        <v>505.944265371788</v>
       </c>
       <c r="Y38" t="n">
-        <v>402.7678417307592</v>
+        <v>29.43921606326436</v>
       </c>
       <c r="Z38" t="n">
-        <v>22.02133277045785</v>
+        <v>381.6821288423329</v>
       </c>
       <c r="AA38" t="n">
-        <v>307.7343899215511</v>
+        <v>62.59375585446496</v>
       </c>
       <c r="AB38" t="n">
-        <v>46.78024353938052</v>
+        <v>55509.39870414274</v>
       </c>
       <c r="AC38" t="n">
-        <v>30774.83633178584</v>
+        <v>1850.316301270364</v>
       </c>
       <c r="AD38" t="n">
-        <v>1850.316301270364</v>
+        <v>10452.77816780621</v>
       </c>
       <c r="AE38" t="n">
-        <v>5535.6351325764</v>
+        <v>4498.955431845747</v>
       </c>
       <c r="AF38" t="n">
-        <v>2247.590791196629</v>
+        <v>388.9162173386106</v>
       </c>
       <c r="AG38" t="n">
-        <v>199.2553139313701</v>
+        <v>1189.473201139608</v>
       </c>
       <c r="AH38" t="n">
-        <v>572.6326591258108</v>
+        <v>54.00175749803079</v>
       </c>
       <c r="AI38" t="n">
-        <v>27.94364331859238</v>
+        <v>5688.432454908859</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2820.22345032244</v>
+        <v>442.9179250012476</v>
       </c>
       <c r="AK38" t="n">
-        <v>227.1989572499625</v>
+        <v>611.239943466718</v>
       </c>
       <c r="AL38" t="n">
-        <v>334.8589712897098</v>
+        <v>39.15225156283543</v>
       </c>
       <c r="AM38" t="n">
-        <v>17.26303969884695</v>
+        <v>450.4007773550586</v>
       </c>
       <c r="AN38" t="n">
-        <v>249.4063729616128</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>41.86316652126818</v>
+        <v>81.51461875073537</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>143.2705671511683</v>
       </c>
       <c r="O39" t="n">
-        <v>364.0369939357444</v>
+        <v>53508.03748813088</v>
       </c>
       <c r="P39" t="n">
-        <v>39203.0882303934</v>
+        <v>1783.595945077018</v>
       </c>
       <c r="Q39" t="n">
-        <v>1783.595945077018</v>
+        <v>8847.740676103767</v>
       </c>
       <c r="R39" t="n">
-        <v>6161.680307036826</v>
+        <v>3499.937938787056</v>
       </c>
       <c r="S39" t="n">
-        <v>2431.118262333458</v>
+        <v>310.9419822282512</v>
       </c>
       <c r="T39" t="n">
-        <v>218.0257382183332</v>
+        <v>1055.419478177364</v>
       </c>
       <c r="U39" t="n">
-        <v>729.512613225806</v>
+        <v>47.59439994659193</v>
       </c>
       <c r="V39" t="n">
-        <v>35.62527337081398</v>
+        <v>4555.364566006162</v>
       </c>
       <c r="W39" t="n">
-        <v>3160.630875559264</v>
+        <v>358.5314986905161</v>
       </c>
       <c r="X39" t="n">
-        <v>253.6510115891472</v>
+        <v>515.161205328409</v>
       </c>
       <c r="Y39" t="n">
-        <v>371.3272222976969</v>
+        <v>32.95393485255646</v>
       </c>
       <c r="Z39" t="n">
-        <v>23.73545800189872</v>
+        <v>372.2954359975413</v>
       </c>
       <c r="AA39" t="n">
-        <v>272.1919494256703</v>
+        <v>57.75071607882106</v>
       </c>
       <c r="AB39" t="n">
-        <v>40.48571299725367</v>
+        <v>56765.8701653457</v>
       </c>
       <c r="AC39" t="n">
-        <v>32756.11580365767</v>
+        <v>1892.184492500573</v>
       </c>
       <c r="AD39" t="n">
-        <v>1892.184492500573</v>
+        <v>10595.87455508187</v>
       </c>
       <c r="AE39" t="n">
-        <v>6100.422055509481</v>
+        <v>4419.64431278462</v>
       </c>
       <c r="AF39" t="n">
-        <v>2392.89671757628</v>
+        <v>367.0065490686386</v>
       </c>
       <c r="AG39" t="n">
-        <v>204.121307610986</v>
+        <v>1217.247163448707</v>
       </c>
       <c r="AH39" t="n">
-        <v>667.760476236534</v>
+        <v>47.23150262789144</v>
       </c>
       <c r="AI39" t="n">
-        <v>28.55607670642223</v>
+        <v>5636.900774213535</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3060.657193812815</v>
+        <v>414.2428191964183</v>
       </c>
       <c r="AK39" t="n">
-        <v>232.6773843174083</v>
+        <v>577.2795888849276</v>
       </c>
       <c r="AL39" t="n">
-        <v>341.6513290897162</v>
+        <v>37.24071423529951</v>
       </c>
       <c r="AM39" t="n">
-        <v>19.93781948762952</v>
+        <v>408.0311927646236</v>
       </c>
       <c r="AN39" t="n">
-        <v>244.7716563355041</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>38.93745462905504</v>
+        <v>65.22725416642848</v>
       </c>
     </row>
   </sheetData>
